--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9413.983425358087</v>
+        <v>9645.443903962807</v>
       </c>
       <c r="AB2" t="n">
-        <v>12880.62743821289</v>
+        <v>13197.32187635553</v>
       </c>
       <c r="AC2" t="n">
-        <v>11651.31843358351</v>
+        <v>11937.78799903324</v>
       </c>
       <c r="AD2" t="n">
-        <v>9413983.425358087</v>
+        <v>9645443.903962808</v>
       </c>
       <c r="AE2" t="n">
-        <v>12880627.43821289</v>
+        <v>13197321.87635553</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.184665626106718e-07</v>
+        <v>7.742727014140101e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.3134765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>11651318.43358351</v>
+        <v>11937787.99903324</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4381.761281346977</v>
+        <v>4528.023147856543</v>
       </c>
       <c r="AB3" t="n">
-        <v>5995.319094803897</v>
+        <v>6195.441033180447</v>
       </c>
       <c r="AC3" t="n">
-        <v>5423.134254878786</v>
+        <v>5604.156836329572</v>
       </c>
       <c r="AD3" t="n">
-        <v>4381761.281346977</v>
+        <v>4528023.147856543</v>
       </c>
       <c r="AE3" t="n">
-        <v>5995319.094803898</v>
+        <v>6195441.033180446</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.635524008197334e-07</v>
+        <v>1.227745669109632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.90364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5423134.254878786</v>
+        <v>5604156.836329572</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3543.563335053933</v>
+        <v>3665.434089844694</v>
       </c>
       <c r="AB4" t="n">
-        <v>4848.459686002124</v>
+        <v>5015.208629265096</v>
       </c>
       <c r="AC4" t="n">
-        <v>4385.729498425806</v>
+        <v>4536.564156577366</v>
       </c>
       <c r="AD4" t="n">
-        <v>3543563.335053933</v>
+        <v>3665434.089844694</v>
       </c>
       <c r="AE4" t="n">
-        <v>4848459.686002124</v>
+        <v>5015208.629265096</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.57665362692013e-07</v>
+        <v>1.401879288704751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.05533854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4385729.498425806</v>
+        <v>4536564.156577365</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3170.269473040903</v>
+        <v>3292.140138323114</v>
       </c>
       <c r="AB5" t="n">
-        <v>4337.702555432968</v>
+        <v>4504.451376226392</v>
       </c>
       <c r="AC5" t="n">
-        <v>3923.718311546055</v>
+        <v>4074.552858916388</v>
       </c>
       <c r="AD5" t="n">
-        <v>3170269.473040903</v>
+        <v>3292140.138323114</v>
       </c>
       <c r="AE5" t="n">
-        <v>4337702.555432969</v>
+        <v>4504451.376226393</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.084564849722909e-07</v>
+        <v>1.495856162771958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.79557291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3923718.311546055</v>
+        <v>4074552.858916388</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2967.321896277033</v>
+        <v>3076.997050454117</v>
       </c>
       <c r="AB6" t="n">
-        <v>4060.020727489439</v>
+        <v>4210.083111960849</v>
       </c>
       <c r="AC6" t="n">
-        <v>3672.538047532573</v>
+        <v>3808.278688643905</v>
       </c>
       <c r="AD6" t="n">
-        <v>2967321.896277033</v>
+        <v>3076997.050454116</v>
       </c>
       <c r="AE6" t="n">
-        <v>4060020.727489439</v>
+        <v>4210083.111960849</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.404810344982748e-07</v>
+        <v>1.555109963884185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.07942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3672538.047532573</v>
+        <v>3808278.688643905</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2824.523122117778</v>
+        <v>2934.283527640881</v>
       </c>
       <c r="AB7" t="n">
-        <v>3864.637144847439</v>
+        <v>4014.816173971498</v>
       </c>
       <c r="AC7" t="n">
-        <v>3495.801599795352</v>
+        <v>3631.647753157397</v>
       </c>
       <c r="AD7" t="n">
-        <v>2824523.122117778</v>
+        <v>2934283.527640881</v>
       </c>
       <c r="AE7" t="n">
-        <v>3864637.144847439</v>
+        <v>4014816.173971498</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.614883920590515e-07</v>
+        <v>1.593979075400953e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.63997395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3495801.599795352</v>
+        <v>3631647.753157397</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2718.854097500212</v>
+        <v>2828.443910822724</v>
       </c>
       <c r="AB8" t="n">
-        <v>3720.056123577324</v>
+        <v>3870.001740926537</v>
       </c>
       <c r="AC8" t="n">
-        <v>3365.019188274525</v>
+        <v>3500.654206353919</v>
       </c>
       <c r="AD8" t="n">
-        <v>2718854.097500212</v>
+        <v>2828443.910822724</v>
       </c>
       <c r="AE8" t="n">
-        <v>3720056.123577324</v>
+        <v>3870001.740926537</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.777340819060523e-07</v>
+        <v>1.62403785497392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.31282552083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3365019.188274525</v>
+        <v>3500654.206353919</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2636.493341292362</v>
+        <v>2734.058235710339</v>
       </c>
       <c r="AB9" t="n">
-        <v>3607.366503433612</v>
+        <v>3740.859096235657</v>
       </c>
       <c r="AC9" t="n">
-        <v>3263.084507316458</v>
+        <v>3383.836754419502</v>
       </c>
       <c r="AD9" t="n">
-        <v>2636493.341292362</v>
+        <v>2734058.235710339</v>
       </c>
       <c r="AE9" t="n">
-        <v>3607366.503433612</v>
+        <v>3740859.096235658</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.899650323081045e-07</v>
+        <v>1.646668315457016e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.0751953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>3263084.507316458</v>
+        <v>3383836.754419502</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2556.023158433264</v>
+        <v>2665.698223101796</v>
       </c>
       <c r="AB10" t="n">
-        <v>3497.263649151873</v>
+        <v>3647.325911153735</v>
       </c>
       <c r="AC10" t="n">
-        <v>3163.489714917046</v>
+        <v>3299.230245247152</v>
       </c>
       <c r="AD10" t="n">
-        <v>2556023.158433264</v>
+        <v>2665698.223101796</v>
       </c>
       <c r="AE10" t="n">
-        <v>3497263.649151873</v>
+        <v>3647325.911153735</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.991149036012427e-07</v>
+        <v>1.663597972917652e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.90266927083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3163489.714917046</v>
+        <v>3299230.245247152</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2489.088399553385</v>
+        <v>2598.763464221917</v>
       </c>
       <c r="AB11" t="n">
-        <v>3405.680559099264</v>
+        <v>3555.742821101126</v>
       </c>
       <c r="AC11" t="n">
-        <v>3080.647186441387</v>
+        <v>3216.387716771493</v>
       </c>
       <c r="AD11" t="n">
-        <v>2489088.399553385</v>
+        <v>2598763.464221917</v>
       </c>
       <c r="AE11" t="n">
-        <v>3405680.559099264</v>
+        <v>3555742.821101126</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.069576504239328e-07</v>
+        <v>1.678109107883912e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.75455729166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3080647.186441388</v>
+        <v>3216387.716771493</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2428.628957595356</v>
+        <v>2538.304022263888</v>
       </c>
       <c r="AB12" t="n">
-        <v>3322.957283329953</v>
+        <v>3473.019545331815</v>
       </c>
       <c r="AC12" t="n">
-        <v>3005.818904008656</v>
+        <v>3141.559434338762</v>
       </c>
       <c r="AD12" t="n">
-        <v>2428628.957595356</v>
+        <v>2538304.022263888</v>
       </c>
       <c r="AE12" t="n">
-        <v>3322957.283329953</v>
+        <v>3473019.545331815</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.140534689777951e-07</v>
+        <v>1.691238229996243e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.62434895833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3005818.904008656</v>
+        <v>3141559.434338762</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2376.985796250067</v>
+        <v>2486.660860918599</v>
       </c>
       <c r="AB13" t="n">
-        <v>3252.296831641842</v>
+        <v>3402.359093643704</v>
       </c>
       <c r="AC13" t="n">
-        <v>2941.902186657094</v>
+        <v>3077.642716987199</v>
       </c>
       <c r="AD13" t="n">
-        <v>2376985.796250067</v>
+        <v>2486660.860918599</v>
       </c>
       <c r="AE13" t="n">
-        <v>3252296.831641842</v>
+        <v>3402359.093643704</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.184416725571573e-07</v>
+        <v>1.699357555513079e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.54622395833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2941902.186657094</v>
+        <v>3077642.7169872</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2327.179956363978</v>
+        <v>2424.659509927384</v>
       </c>
       <c r="AB14" t="n">
-        <v>3184.150284231113</v>
+        <v>3317.526109910961</v>
       </c>
       <c r="AC14" t="n">
-        <v>2880.259450086968</v>
+        <v>3000.906074158072</v>
       </c>
       <c r="AD14" t="n">
-        <v>2327179.956363978</v>
+        <v>2424659.509927384</v>
       </c>
       <c r="AE14" t="n">
-        <v>3184150.284231113</v>
+        <v>3317526.109910961</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.235768044053472e-07</v>
+        <v>1.708858893883844e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.45345052083333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2880259.450086968</v>
+        <v>3000906.074158072</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2286.222208832107</v>
+        <v>2383.701762395511</v>
       </c>
       <c r="AB15" t="n">
-        <v>3128.110087129708</v>
+        <v>3261.485912809556</v>
       </c>
       <c r="AC15" t="n">
-        <v>2829.567650744012</v>
+        <v>2950.214274815117</v>
       </c>
       <c r="AD15" t="n">
-        <v>2286222.208832107</v>
+        <v>2383701.762395511</v>
       </c>
       <c r="AE15" t="n">
-        <v>3128110.087129708</v>
+        <v>3261485.912809556</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.266578835142612e-07</v>
+        <v>1.714559696906303e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.39811197916667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2829567.650744012</v>
+        <v>2950214.274815117</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2271.655600911644</v>
+        <v>2369.135154475049</v>
       </c>
       <c r="AB16" t="n">
-        <v>3108.179411539543</v>
+        <v>3241.555237219391</v>
       </c>
       <c r="AC16" t="n">
-        <v>2811.539130859294</v>
+        <v>2932.1857549304</v>
       </c>
       <c r="AD16" t="n">
-        <v>2271655.600911644</v>
+        <v>2369135.154475049</v>
       </c>
       <c r="AE16" t="n">
-        <v>3108179.411539543</v>
+        <v>3241555.237219391</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.27684909883899e-07</v>
+        <v>1.716459964580456e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2811539.130859294</v>
+        <v>2932185.754930399</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2274.003736667866</v>
+        <v>2371.483290231271</v>
       </c>
       <c r="AB17" t="n">
-        <v>3111.392234473645</v>
+        <v>3244.768060153492</v>
       </c>
       <c r="AC17" t="n">
-        <v>2814.44532648179</v>
+        <v>2935.091950552895</v>
       </c>
       <c r="AD17" t="n">
-        <v>2274003.736667866</v>
+        <v>2371483.290231271</v>
       </c>
       <c r="AE17" t="n">
-        <v>3111392.234473645</v>
+        <v>3244768.060153492</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.718014729041127e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2814445.32648179</v>
+        <v>2935091.950552895</v>
       </c>
     </row>
     <row r="18">
@@ -6323,28 +6323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2284.482721741496</v>
+        <v>2381.962275304902</v>
       </c>
       <c r="AB18" t="n">
-        <v>3125.73004415158</v>
+        <v>3259.105869831429</v>
       </c>
       <c r="AC18" t="n">
-        <v>2827.414755727305</v>
+        <v>2948.061379798411</v>
       </c>
       <c r="AD18" t="n">
-        <v>2284482.721741496</v>
+        <v>2381962.275304901</v>
       </c>
       <c r="AE18" t="n">
-        <v>3125730.04415158</v>
+        <v>3259105.869831429</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.718014729041127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>2827414.755727306</v>
+        <v>2948061.37979841</v>
       </c>
     </row>
   </sheetData>
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6471.479797792053</v>
+        <v>6659.613851060958</v>
       </c>
       <c r="AB2" t="n">
-        <v>8854.564160878586</v>
+        <v>9111.977472449767</v>
       </c>
       <c r="AC2" t="n">
-        <v>8009.496984822851</v>
+        <v>8242.343131219523</v>
       </c>
       <c r="AD2" t="n">
-        <v>6471479.797792054</v>
+        <v>6659613.851060958</v>
       </c>
       <c r="AE2" t="n">
-        <v>8854564.160878586</v>
+        <v>9111977.472449768</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137401653773928e-07</v>
+        <v>9.792680419613041e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8009496.984822851</v>
+        <v>8242343.131219523</v>
       </c>
     </row>
     <row r="3">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3505.398093415423</v>
+        <v>3634.62833467472</v>
       </c>
       <c r="AB3" t="n">
-        <v>4796.240318660682</v>
+        <v>4973.058835987535</v>
       </c>
       <c r="AC3" t="n">
-        <v>4338.493874213092</v>
+        <v>4498.437080412609</v>
       </c>
       <c r="AD3" t="n">
-        <v>3505398.093415423</v>
+        <v>3634628.334674721</v>
       </c>
       <c r="AE3" t="n">
-        <v>4796240.318660682</v>
+        <v>4973058.835987534</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411998550678911e-07</v>
+        <v>1.412841314910894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.20930989583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4338493.874213092</v>
+        <v>4498437.08041261</v>
       </c>
     </row>
     <row r="4">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2918.368511281865</v>
+        <v>3024.242009984871</v>
       </c>
       <c r="AB4" t="n">
-        <v>3993.040546468122</v>
+        <v>4137.901338202698</v>
       </c>
       <c r="AC4" t="n">
-        <v>3611.950360980659</v>
+        <v>3742.98584206548</v>
       </c>
       <c r="AD4" t="n">
-        <v>2918368.511281865</v>
+        <v>3024242.009984871</v>
       </c>
       <c r="AE4" t="n">
-        <v>3993040.546468122</v>
+        <v>4137901.338202698</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.259056503369215e-07</v>
+        <v>1.574303633542228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.033203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3611950.360980659</v>
+        <v>3742985.84206548</v>
       </c>
     </row>
     <row r="5">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2648.5155673558</v>
+        <v>2754.303725204234</v>
       </c>
       <c r="AB5" t="n">
-        <v>3623.815843516789</v>
+        <v>3768.559868129167</v>
       </c>
       <c r="AC5" t="n">
-        <v>3277.96394546889</v>
+        <v>3408.893803521772</v>
       </c>
       <c r="AD5" t="n">
-        <v>2648515.567355799</v>
+        <v>2754303.725204234</v>
       </c>
       <c r="AE5" t="n">
-        <v>3623815.843516789</v>
+        <v>3768559.868129167</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709146589975466e-07</v>
+        <v>1.660097750397646e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.05013020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3277963.94546889</v>
+        <v>3408893.803521771</v>
       </c>
     </row>
     <row r="6">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2477.330377778338</v>
+        <v>2583.033194772201</v>
       </c>
       <c r="AB6" t="n">
-        <v>3389.592714979334</v>
+        <v>3534.219972469514</v>
       </c>
       <c r="AC6" t="n">
-        <v>3066.094743584832</v>
+        <v>3196.918978605775</v>
       </c>
       <c r="AD6" t="n">
-        <v>2477330.377778338</v>
+        <v>2583033.194772201</v>
       </c>
       <c r="AE6" t="n">
-        <v>3389592.714979334</v>
+        <v>3534219.972469514</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.989245570910687e-07</v>
+        <v>1.713488938998657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3066094.743584833</v>
+        <v>3196918.978605775</v>
       </c>
     </row>
     <row r="7">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2367.362763007262</v>
+        <v>2461.47254957755</v>
       </c>
       <c r="AB7" t="n">
-        <v>3239.130173020771</v>
+        <v>3367.89533483701</v>
       </c>
       <c r="AC7" t="n">
-        <v>2929.992135455296</v>
+        <v>3046.468130950828</v>
       </c>
       <c r="AD7" t="n">
-        <v>2367362.763007262</v>
+        <v>2461472.54957755</v>
       </c>
       <c r="AE7" t="n">
-        <v>3239130.173020771</v>
+        <v>3367895.33483701</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.170826979241106e-07</v>
+        <v>1.748101157815864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.14192708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2929992.135455296</v>
+        <v>3046468.130950828</v>
       </c>
     </row>
     <row r="8">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2260.351063797302</v>
+        <v>2366.139132137186</v>
       </c>
       <c r="AB8" t="n">
-        <v>3092.712045138721</v>
+        <v>3237.455947281549</v>
       </c>
       <c r="AC8" t="n">
-        <v>2797.547948199182</v>
+        <v>2928.477695470836</v>
       </c>
       <c r="AD8" t="n">
-        <v>2260351.063797302</v>
+        <v>2366139.132137186</v>
       </c>
       <c r="AE8" t="n">
-        <v>3092712.045138721</v>
+        <v>3237455.94728155</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.315705762483462e-07</v>
+        <v>1.77571728985087e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.87662760416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2797547.948199181</v>
+        <v>2928477.695470836</v>
       </c>
     </row>
     <row r="9">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2176.19999472267</v>
+        <v>2281.988063062555</v>
       </c>
       <c r="AB9" t="n">
-        <v>2977.572839947477</v>
+        <v>3122.316742090481</v>
       </c>
       <c r="AC9" t="n">
-        <v>2693.397467152617</v>
+        <v>2824.327214424318</v>
       </c>
       <c r="AD9" t="n">
-        <v>2176199.994722669</v>
+        <v>2281988.063062555</v>
       </c>
       <c r="AE9" t="n">
-        <v>2977572.839947477</v>
+        <v>3122316.74209048</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.421950203527856e-07</v>
+        <v>1.795969120009874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.6845703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2693397.467152617</v>
+        <v>2824327.214424318</v>
       </c>
     </row>
     <row r="10">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2107.879767914601</v>
+        <v>2213.667836254487</v>
       </c>
       <c r="AB10" t="n">
-        <v>2884.094091552994</v>
+        <v>3028.837993695991</v>
       </c>
       <c r="AC10" t="n">
-        <v>2608.840199306655</v>
+        <v>2739.769946578355</v>
       </c>
       <c r="AD10" t="n">
-        <v>2107879.767914601</v>
+        <v>2213667.836254487</v>
       </c>
       <c r="AE10" t="n">
-        <v>2884094.091552994</v>
+        <v>3028837.993695992</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.498253029368831e-07</v>
+        <v>1.810513616214977e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.55110677083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2608840.199306656</v>
+        <v>2739769.946578355</v>
       </c>
     </row>
     <row r="11">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2046.112811166694</v>
+        <v>2140.13725688241</v>
       </c>
       <c r="AB11" t="n">
-        <v>2799.581816364694</v>
+        <v>2928.230211058727</v>
       </c>
       <c r="AC11" t="n">
-        <v>2532.393657048604</v>
+        <v>2648.764029512196</v>
       </c>
       <c r="AD11" t="n">
-        <v>2046112.811166693</v>
+        <v>2140137.25688241</v>
       </c>
       <c r="AE11" t="n">
-        <v>2799581.816364694</v>
+        <v>2928230.211058727</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.559102118330621e-07</v>
+        <v>1.82211239166968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.4453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2532393.657048604</v>
+        <v>2648764.029512195</v>
       </c>
     </row>
     <row r="12">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2039.672049465218</v>
+        <v>2133.696495180935</v>
       </c>
       <c r="AB12" t="n">
-        <v>2790.769282058382</v>
+        <v>2919.417676752415</v>
       </c>
       <c r="AC12" t="n">
-        <v>2524.422178648017</v>
+        <v>2640.792551111608</v>
       </c>
       <c r="AD12" t="n">
-        <v>2039672.049465218</v>
+        <v>2133696.495180935</v>
       </c>
       <c r="AE12" t="n">
-        <v>2790769.282058382</v>
+        <v>2919417.676752415</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.571658279544957e-07</v>
+        <v>1.82450578977938e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.42415364583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2524422.178648017</v>
+        <v>2640792.551111608</v>
       </c>
     </row>
     <row r="13">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2050.168522476395</v>
+        <v>2144.192968192112</v>
       </c>
       <c r="AB13" t="n">
-        <v>2805.131019503983</v>
+        <v>2933.779414198016</v>
       </c>
       <c r="AC13" t="n">
-        <v>2537.413252028634</v>
+        <v>2653.783624492225</v>
       </c>
       <c r="AD13" t="n">
-        <v>2050168.522476395</v>
+        <v>2144192.968192112</v>
       </c>
       <c r="AE13" t="n">
-        <v>2805131.019503983</v>
+        <v>2933779.414198016</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.570692420990007e-07</v>
+        <v>1.82432168223248e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.42578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2537413.252028634</v>
+        <v>2653783.624492226</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2486.656973071707</v>
+        <v>2601.584248274215</v>
       </c>
       <c r="AB2" t="n">
-        <v>3402.353774120067</v>
+        <v>3559.60234228569</v>
       </c>
       <c r="AC2" t="n">
-        <v>3077.637905151433</v>
+        <v>3219.878890671074</v>
       </c>
       <c r="AD2" t="n">
-        <v>2486656.973071707</v>
+        <v>2601584.248274215</v>
       </c>
       <c r="AE2" t="n">
-        <v>3402353.774120067</v>
+        <v>3559602.34228569</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.192034326634511e-07</v>
+        <v>1.74468892363106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.41276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3077637.905151433</v>
+        <v>3219878.890671074</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1748.501950860679</v>
+        <v>1852.965694063445</v>
       </c>
       <c r="AB3" t="n">
-        <v>2392.377507629494</v>
+        <v>2535.309409694608</v>
       </c>
       <c r="AC3" t="n">
-        <v>2164.052356024255</v>
+        <v>2293.343037962459</v>
       </c>
       <c r="AD3" t="n">
-        <v>1748501.950860679</v>
+        <v>1852965.694063445</v>
       </c>
       <c r="AE3" t="n">
-        <v>2392377.507629494</v>
+        <v>2535309.409694608</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.797892917173312e-07</v>
+        <v>2.086694777625308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.90364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2164052.356024255</v>
+        <v>2293343.037962459</v>
       </c>
     </row>
     <row r="4">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1528.381591812692</v>
+        <v>1612.08922125077</v>
       </c>
       <c r="AB4" t="n">
-        <v>2091.199121355166</v>
+        <v>2205.731592872322</v>
       </c>
       <c r="AC4" t="n">
-        <v>1891.618012229429</v>
+        <v>1995.219665412321</v>
       </c>
       <c r="AD4" t="n">
-        <v>1528381.591812692</v>
+        <v>1612089.22125077</v>
       </c>
       <c r="AE4" t="n">
-        <v>2091199.121355166</v>
+        <v>2205731.592872323</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.031629424740765e-06</v>
+        <v>2.197100694250297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.00358072916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1891618.012229429</v>
+        <v>1995219.665412321</v>
       </c>
     </row>
     <row r="5">
@@ -8401,28 +8401,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1511.398991640084</v>
+        <v>1605.48463320623</v>
       </c>
       <c r="AB5" t="n">
-        <v>2067.962778579562</v>
+        <v>2196.694904135923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1870.599313395916</v>
+        <v>1987.045425565851</v>
       </c>
       <c r="AD5" t="n">
-        <v>1511398.991640084</v>
+        <v>1605484.63320623</v>
       </c>
       <c r="AE5" t="n">
-        <v>2067962.778579562</v>
+        <v>2196694.904135923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034862697070709e-06</v>
+        <v>2.203986718156221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.94986979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1870599.313395916</v>
+        <v>1987045.425565851</v>
       </c>
     </row>
   </sheetData>
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3570.836257952902</v>
+        <v>3702.412559161286</v>
       </c>
       <c r="AB2" t="n">
-        <v>4885.775702308936</v>
+        <v>5065.804202358989</v>
       </c>
       <c r="AC2" t="n">
-        <v>4419.484126509653</v>
+        <v>4582.330959186508</v>
       </c>
       <c r="AD2" t="n">
-        <v>3570836.257952902</v>
+        <v>3702412.559161285</v>
       </c>
       <c r="AE2" t="n">
-        <v>4885775.702308936</v>
+        <v>5065804.202358989</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.965816674996404e-07</v>
+        <v>1.414301615362071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.091796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4419484.126509652</v>
+        <v>4582330.959186508</v>
       </c>
     </row>
     <row r="3">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2327.092153819603</v>
+        <v>2436.724773427034</v>
       </c>
       <c r="AB3" t="n">
-        <v>3184.030148916323</v>
+        <v>3334.034335713043</v>
       </c>
       <c r="AC3" t="n">
-        <v>2880.150780318009</v>
+        <v>3015.838778059043</v>
       </c>
       <c r="AD3" t="n">
-        <v>2327092.153819602</v>
+        <v>2436724.773427034</v>
       </c>
       <c r="AE3" t="n">
-        <v>3184030.148916323</v>
+        <v>3334034.335713043</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.848525563176307e-07</v>
+        <v>1.796556610869936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2880150.780318009</v>
+        <v>3015838.778059043</v>
       </c>
     </row>
     <row r="4">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2007.597605878705</v>
+        <v>2106.343770294508</v>
       </c>
       <c r="AB4" t="n">
-        <v>2746.883613318732</v>
+        <v>2881.99247184575</v>
       </c>
       <c r="AC4" t="n">
-        <v>2484.724896538957</v>
+        <v>2606.939155234631</v>
       </c>
       <c r="AD4" t="n">
-        <v>2007597.605878705</v>
+        <v>2106343.770294508</v>
       </c>
       <c r="AE4" t="n">
-        <v>2746883.613318732</v>
+        <v>2881992.47184575</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.514587962828125e-07</v>
+        <v>1.931790305885315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.63834635416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2484724.896538957</v>
+        <v>2606939.155234631</v>
       </c>
     </row>
     <row r="5">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1832.243718630398</v>
+        <v>1920.018176508552</v>
       </c>
       <c r="AB5" t="n">
-        <v>2506.956688718077</v>
+        <v>2627.053574322753</v>
       </c>
       <c r="AC5" t="n">
-        <v>2267.696260882635</v>
+        <v>2376.331268282238</v>
       </c>
       <c r="AD5" t="n">
-        <v>1832243.718630398</v>
+        <v>1920018.176508552</v>
       </c>
       <c r="AE5" t="n">
-        <v>2506956.688718077</v>
+        <v>2627053.574322753</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.865147120539609e-07</v>
+        <v>2.002965934840777e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.01009114583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2267696.260882635</v>
+        <v>2376331.268282238</v>
       </c>
     </row>
     <row r="6">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1706.661379181707</v>
+        <v>1805.322202742938</v>
       </c>
       <c r="AB6" t="n">
-        <v>2335.129391582577</v>
+        <v>2470.121482987398</v>
       </c>
       <c r="AC6" t="n">
-        <v>2112.267919824621</v>
+        <v>2234.376555488355</v>
       </c>
       <c r="AD6" t="n">
-        <v>1706661.379181707</v>
+        <v>1805322.202742938</v>
       </c>
       <c r="AE6" t="n">
-        <v>2335129.391582577</v>
+        <v>2470121.482987398</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.005692360093471e-06</v>
+        <v>2.041903190681118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.68619791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2112267.919824621</v>
+        <v>2234376.555488355</v>
       </c>
     </row>
     <row r="7">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1701.714359917916</v>
+        <v>1800.375183479148</v>
       </c>
       <c r="AB7" t="n">
-        <v>2328.360661578772</v>
+        <v>2463.352752983592</v>
       </c>
       <c r="AC7" t="n">
-        <v>2106.145187912406</v>
+        <v>2228.253823576141</v>
       </c>
       <c r="AD7" t="n">
-        <v>1701714.359917916</v>
+        <v>1800375.183479148</v>
       </c>
       <c r="AE7" t="n">
-        <v>2328360.661578772</v>
+        <v>2463352.752983592</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.007651367151271e-06</v>
+        <v>2.045880652299218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.65364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2106145.187912406</v>
+        <v>2228253.823576141</v>
       </c>
     </row>
   </sheetData>
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1819.646822863022</v>
+        <v>1920.111705832957</v>
       </c>
       <c r="AB2" t="n">
-        <v>2489.721060193334</v>
+        <v>2627.181545270627</v>
       </c>
       <c r="AC2" t="n">
-        <v>2252.105576553936</v>
+        <v>2376.447025862454</v>
       </c>
       <c r="AD2" t="n">
-        <v>1819646.822863022</v>
+        <v>1920111.705832957</v>
       </c>
       <c r="AE2" t="n">
-        <v>2489721.060193334</v>
+        <v>2627181.545270627</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.242405160544543e-07</v>
+        <v>2.058103102860724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7119140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2252105.576553936</v>
+        <v>2376447.025862454</v>
       </c>
     </row>
     <row r="3">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1372.453887965768</v>
+        <v>1462.701690438118</v>
       </c>
       <c r="AB3" t="n">
-        <v>1877.85195790701</v>
+        <v>2001.332982701727</v>
       </c>
       <c r="AC3" t="n">
-        <v>1698.632402626141</v>
+        <v>1810.328571721156</v>
       </c>
       <c r="AD3" t="n">
-        <v>1372453.887965768</v>
+        <v>1462701.690438118</v>
       </c>
       <c r="AE3" t="n">
-        <v>1877851.95790701</v>
+        <v>2001332.982701727</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048151652214353e-06</v>
+        <v>2.334029000264965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.38118489583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1698632.402626141</v>
+        <v>1810328.571721156</v>
       </c>
     </row>
     <row r="4">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1380.053510687294</v>
+        <v>1470.301313159643</v>
       </c>
       <c r="AB4" t="n">
-        <v>1888.250096986293</v>
+        <v>2011.73112178101</v>
       </c>
       <c r="AC4" t="n">
-        <v>1708.038157905577</v>
+        <v>1819.734327000592</v>
       </c>
       <c r="AD4" t="n">
-        <v>1380053.510687294</v>
+        <v>1470301.313159643</v>
       </c>
       <c r="AE4" t="n">
-        <v>1888250.096986293</v>
+        <v>2011731.121781009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.049494862362427e-06</v>
+        <v>2.337020066903494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.36002604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1708038.157905577</v>
+        <v>1819734.327000592</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7101.351110712142</v>
+        <v>7303.09334457206</v>
       </c>
       <c r="AB2" t="n">
-        <v>9716.38187917705</v>
+        <v>9992.414503783417</v>
       </c>
       <c r="AC2" t="n">
-        <v>8789.064029655641</v>
+        <v>9038.752487983789</v>
       </c>
       <c r="AD2" t="n">
-        <v>7101351.110712142</v>
+        <v>7303093.34457206</v>
       </c>
       <c r="AE2" t="n">
-        <v>9716381.879177051</v>
+        <v>9992414.503783416</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.884501362884913e-07</v>
+        <v>9.235437716281483e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.89615885416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8789064.029655641</v>
+        <v>9038752.487983789</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3713.948196003467</v>
+        <v>3844.597729606977</v>
       </c>
       <c r="AB3" t="n">
-        <v>5081.587769602842</v>
+        <v>5260.348225329805</v>
       </c>
       <c r="AC3" t="n">
-        <v>4596.608164924983</v>
+        <v>4758.307973649235</v>
       </c>
       <c r="AD3" t="n">
-        <v>3713948.196003467</v>
+        <v>3844597.729606977</v>
       </c>
       <c r="AE3" t="n">
-        <v>5081587.769602842</v>
+        <v>5260348.225329805</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204711298929012e-07</v>
+        <v>1.362240636693136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.62272135416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4596608.164924983</v>
+        <v>4758307.973649235</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3067.006008327749</v>
+        <v>3185.607719403076</v>
       </c>
       <c r="AB4" t="n">
-        <v>4196.412927349883</v>
+        <v>4358.689020781367</v>
       </c>
       <c r="AC4" t="n">
-        <v>3795.913167265986</v>
+        <v>3942.70185809629</v>
       </c>
       <c r="AD4" t="n">
-        <v>3067006.00832775</v>
+        <v>3185607.719403076</v>
       </c>
       <c r="AE4" t="n">
-        <v>4196412.927349883</v>
+        <v>4358689.020781367</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.082447483480347e-07</v>
+        <v>1.528199805531664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.27571614583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3795913.167265986</v>
+        <v>3942701.85809629</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2777.192881559642</v>
+        <v>2884.002703161947</v>
       </c>
       <c r="AB5" t="n">
-        <v>3799.877821652948</v>
+        <v>3946.019731685996</v>
       </c>
       <c r="AC5" t="n">
-        <v>3437.222815516265</v>
+        <v>3569.417146767212</v>
       </c>
       <c r="AD5" t="n">
-        <v>2777192.881559642</v>
+        <v>2884002.703161947</v>
       </c>
       <c r="AE5" t="n">
-        <v>3799877.821652948</v>
+        <v>3946019.731685996</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.545723724835687e-07</v>
+        <v>1.615794394100746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3437222.815516265</v>
+        <v>3569417.146767212</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2597.11566103717</v>
+        <v>2704.010733985496</v>
       </c>
       <c r="AB6" t="n">
-        <v>3553.488224087809</v>
+        <v>3699.746778773507</v>
       </c>
       <c r="AC6" t="n">
-        <v>3214.348295332781</v>
+        <v>3346.64813883444</v>
       </c>
       <c r="AD6" t="n">
-        <v>2597115.66103717</v>
+        <v>2704010.733985496</v>
       </c>
       <c r="AE6" t="n">
-        <v>3553488.224087809</v>
+        <v>3699746.778773507</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.8357499668412e-07</v>
+        <v>1.67063150223387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.63346354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3214348.295332781</v>
+        <v>3346648.138834441</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2480.347143669427</v>
+        <v>2587.071624417163</v>
       </c>
       <c r="AB7" t="n">
-        <v>3393.720387161842</v>
+        <v>3539.745530072692</v>
       </c>
       <c r="AC7" t="n">
-        <v>3069.828476527466</v>
+        <v>3201.917184746475</v>
       </c>
       <c r="AD7" t="n">
-        <v>2480347.143669427</v>
+        <v>2587071.624417163</v>
       </c>
       <c r="AE7" t="n">
-        <v>3393720.387161842</v>
+        <v>3539745.530072691</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.030057977161722e-07</v>
+        <v>1.707370554877513e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.25260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3069828.476527466</v>
+        <v>3201917.184746474</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2374.083339904413</v>
+        <v>2480.893071998168</v>
       </c>
       <c r="AB8" t="n">
-        <v>3248.325562822382</v>
+        <v>3394.467350385883</v>
       </c>
       <c r="AC8" t="n">
-        <v>2938.309930160052</v>
+        <v>3070.504150629773</v>
       </c>
       <c r="AD8" t="n">
-        <v>2374083.339904413</v>
+        <v>2480893.071998168</v>
       </c>
       <c r="AE8" t="n">
-        <v>3248325.562822382</v>
+        <v>3394467.350385882</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.171720960055505e-07</v>
+        <v>1.734155677001943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.98567708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2938309.930160052</v>
+        <v>3070504.150629773</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2297.385139208094</v>
+        <v>2404.194871301848</v>
       </c>
       <c r="AB9" t="n">
-        <v>3143.383700943865</v>
+        <v>3289.525488507366</v>
       </c>
       <c r="AC9" t="n">
-        <v>2843.383572292397</v>
+        <v>2975.577792762118</v>
       </c>
       <c r="AD9" t="n">
-        <v>2297385.139208094</v>
+        <v>2404194.871301848</v>
       </c>
       <c r="AE9" t="n">
-        <v>3143383.700943865</v>
+        <v>3289525.488507366</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.27796819722584e-07</v>
+        <v>1.754244518595266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2843383.572292397</v>
+        <v>2975577.792762118</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2218.601171777827</v>
+        <v>2325.410903871582</v>
       </c>
       <c r="AB10" t="n">
-        <v>3035.588001002428</v>
+        <v>3181.729788565929</v>
       </c>
       <c r="AC10" t="n">
-        <v>2745.87574266116</v>
+        <v>2878.069963130881</v>
       </c>
       <c r="AD10" t="n">
-        <v>2218601.171777827</v>
+        <v>2325410.903871582</v>
       </c>
       <c r="AE10" t="n">
-        <v>3035588.001002429</v>
+        <v>3181729.788565929</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.371772064277128e-07</v>
+        <v>1.771980612974956e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.62434895833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2745875.74266116</v>
+        <v>2878069.963130881</v>
       </c>
     </row>
     <row r="11">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2155.123570609126</v>
+        <v>2261.933302702884</v>
       </c>
       <c r="AB11" t="n">
-        <v>2948.735146649119</v>
+        <v>3094.876934212792</v>
       </c>
       <c r="AC11" t="n">
-        <v>2667.312002828697</v>
+        <v>2799.506223298464</v>
       </c>
       <c r="AD11" t="n">
-        <v>2155123.570609126</v>
+        <v>2261933.302702884</v>
       </c>
       <c r="AE11" t="n">
-        <v>2948735.146649119</v>
+        <v>3094876.934212792</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.436860461822919e-07</v>
+        <v>1.784287290707802e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2667312.002828697</v>
+        <v>2799506.223298464</v>
       </c>
     </row>
     <row r="12">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2105.122872043085</v>
+        <v>2200.055463317801</v>
       </c>
       <c r="AB12" t="n">
-        <v>2880.321984995924</v>
+        <v>3010.212944508507</v>
       </c>
       <c r="AC12" t="n">
-        <v>2605.428097305207</v>
+        <v>2722.922445944904</v>
       </c>
       <c r="AD12" t="n">
-        <v>2105122.872043085</v>
+        <v>2200055.463317801</v>
       </c>
       <c r="AE12" t="n">
-        <v>2880321.984995923</v>
+        <v>3010212.944508507</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.478976483764315e-07</v>
+        <v>1.792250435123173e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.435546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2605428.097305208</v>
+        <v>2722922.445944904</v>
       </c>
     </row>
     <row r="13">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2095.506279108114</v>
+        <v>2190.438870382828</v>
       </c>
       <c r="AB13" t="n">
-        <v>2867.164138288158</v>
+        <v>2997.055097800566</v>
       </c>
       <c r="AC13" t="n">
-        <v>2593.526017020077</v>
+        <v>2711.020365659727</v>
       </c>
       <c r="AD13" t="n">
-        <v>2095506.279108114</v>
+        <v>2190438.870382828</v>
       </c>
       <c r="AE13" t="n">
-        <v>2867164.138288158</v>
+        <v>2997055.097800566</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.794422201781911e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.416015625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2593526.017020077</v>
+        <v>2711020.365659727</v>
       </c>
     </row>
     <row r="14">
@@ -11306,28 +11306,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2104.548766994209</v>
+        <v>2199.481358268926</v>
       </c>
       <c r="AB14" t="n">
-        <v>2879.536469140325</v>
+        <v>3009.427428652908</v>
       </c>
       <c r="AC14" t="n">
-        <v>2604.717549980389</v>
+        <v>2722.211898620085</v>
       </c>
       <c r="AD14" t="n">
-        <v>2104548.766994209</v>
+        <v>2199481.358268926</v>
       </c>
       <c r="AE14" t="n">
-        <v>2879536.469140325</v>
+        <v>3009427.428652909</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.794422201781911e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.416015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2604717.549980389</v>
+        <v>2722211.898620085</v>
       </c>
     </row>
   </sheetData>
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1473.405120972657</v>
+        <v>1571.315669966073</v>
       </c>
       <c r="AB2" t="n">
-        <v>2015.977888561112</v>
+        <v>2149.94342120247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1823.575788319576</v>
+        <v>1944.755838547449</v>
       </c>
       <c r="AD2" t="n">
-        <v>1473405.120972657</v>
+        <v>1571315.669966073</v>
       </c>
       <c r="AE2" t="n">
-        <v>2015977.888561112</v>
+        <v>2149943.42120247</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.916714907237493e-07</v>
+        <v>2.273473084755648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80045572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1823575.788319576</v>
+        <v>1944755.838547449</v>
       </c>
     </row>
     <row r="3">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1289.890301128208</v>
+        <v>1378.086601991397</v>
       </c>
       <c r="AB3" t="n">
-        <v>1764.88481594748</v>
+        <v>1885.55888573468</v>
       </c>
       <c r="AC3" t="n">
-        <v>1596.446686144849</v>
+        <v>1705.603792078679</v>
       </c>
       <c r="AD3" t="n">
-        <v>1289890.301128208</v>
+        <v>1378086.601991397</v>
       </c>
       <c r="AE3" t="n">
-        <v>1764884.81594748</v>
+        <v>1885558.88573468</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.051810976992661e-06</v>
+        <v>2.411346871228644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.72623697916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1596446.686144849</v>
+        <v>1705603.792078679</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4860.427486947778</v>
+        <v>5019.790964080384</v>
       </c>
       <c r="AB2" t="n">
-        <v>6650.251314569561</v>
+        <v>6868.299454602821</v>
       </c>
       <c r="AC2" t="n">
-        <v>6015.560662793134</v>
+        <v>6212.798594374095</v>
       </c>
       <c r="AD2" t="n">
-        <v>4860427.486947778</v>
+        <v>5019790.964080384</v>
       </c>
       <c r="AE2" t="n">
-        <v>6650251.314569561</v>
+        <v>6868299.454602821</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976772427832346e-07</v>
+        <v>1.171439135994983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.10123697916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6015560.662793133</v>
+        <v>6212798.594374095</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2906.84036440717</v>
+        <v>3020.708019727719</v>
       </c>
       <c r="AB3" t="n">
-        <v>3977.267227328216</v>
+        <v>4133.065976824214</v>
       </c>
       <c r="AC3" t="n">
-        <v>3597.682425281474</v>
+        <v>3738.611960790486</v>
       </c>
       <c r="AD3" t="n">
-        <v>2906840.36440717</v>
+        <v>3020708.019727719</v>
       </c>
       <c r="AE3" t="n">
-        <v>3977267.227328217</v>
+        <v>4133065.976824214</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.077499466652539e-07</v>
+        <v>1.5831787324128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3597682.425281474</v>
+        <v>3738611.960790486</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2462.666622162556</v>
+        <v>2565.138986816449</v>
       </c>
       <c r="AB4" t="n">
-        <v>3369.529117626578</v>
+        <v>3509.736327707712</v>
       </c>
       <c r="AC4" t="n">
-        <v>3047.945987803989</v>
+        <v>3174.772018537029</v>
       </c>
       <c r="AD4" t="n">
-        <v>2462666.622162555</v>
+        <v>2565138.986816449</v>
       </c>
       <c r="AE4" t="n">
-        <v>3369529.117626578</v>
+        <v>3509736.327707712</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.845742609224397e-07</v>
+        <v>1.733753326649917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.310546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3047945.987803989</v>
+        <v>3174772.018537029</v>
       </c>
     </row>
     <row r="5">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2248.614605774035</v>
+        <v>2351.172221773948</v>
       </c>
       <c r="AB5" t="n">
-        <v>3076.653705495301</v>
+        <v>3216.977560229083</v>
       </c>
       <c r="AC5" t="n">
-        <v>2783.02219395331</v>
+        <v>2909.953736937061</v>
       </c>
       <c r="AD5" t="n">
-        <v>2248614.605774035</v>
+        <v>2351172.221773949</v>
       </c>
       <c r="AE5" t="n">
-        <v>3076653.705495302</v>
+        <v>3216977.560229084</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.239815516554002e-07</v>
+        <v>1.810991071880356e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.53092447916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2783022.19395331</v>
+        <v>2909953.736937061</v>
       </c>
     </row>
     <row r="6">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2110.511892437654</v>
+        <v>2201.674307279463</v>
       </c>
       <c r="AB6" t="n">
-        <v>2887.695480446573</v>
+        <v>3012.427918235209</v>
       </c>
       <c r="AC6" t="n">
-        <v>2612.097876698814</v>
+        <v>2724.926025687864</v>
       </c>
       <c r="AD6" t="n">
-        <v>2110511.892437654</v>
+        <v>2201674.307279463</v>
       </c>
       <c r="AE6" t="n">
-        <v>2887695.480446573</v>
+        <v>3012427.918235209</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.484618383228453e-07</v>
+        <v>1.858972095432598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.07682291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2612097.876698814</v>
+        <v>2724926.025687864</v>
       </c>
     </row>
     <row r="7">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1991.437605102515</v>
+        <v>2093.909880247856</v>
       </c>
       <c r="AB7" t="n">
-        <v>2724.77278732783</v>
+        <v>2864.979874939407</v>
       </c>
       <c r="AC7" t="n">
-        <v>2464.724296747887</v>
+        <v>2591.550216699698</v>
       </c>
       <c r="AD7" t="n">
-        <v>1991437.605102515</v>
+        <v>2093909.880247856</v>
       </c>
       <c r="AE7" t="n">
-        <v>2724772.78732783</v>
+        <v>2864979.874939407</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.65379109597096e-07</v>
+        <v>1.892129713334554e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.77734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2464724.296747888</v>
+        <v>2591550.216699698</v>
       </c>
     </row>
     <row r="8">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1897.538461823308</v>
+        <v>2000.010736968649</v>
       </c>
       <c r="AB8" t="n">
-        <v>2596.295836955383</v>
+        <v>2736.502924566959</v>
       </c>
       <c r="AC8" t="n">
-        <v>2348.509006200454</v>
+        <v>2475.334926152265</v>
       </c>
       <c r="AD8" t="n">
-        <v>1897538.461823308</v>
+        <v>2000010.736968649</v>
       </c>
       <c r="AE8" t="n">
-        <v>2596295.836955383</v>
+        <v>2736502.924566959</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.773207128495083e-07</v>
+        <v>1.915535090677111e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.572265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2348509.006200454</v>
+        <v>2475334.926152265</v>
       </c>
     </row>
     <row r="9">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1872.519976879649</v>
+        <v>1974.99225202499</v>
       </c>
       <c r="AB9" t="n">
-        <v>2562.064442117812</v>
+        <v>2702.271529729388</v>
       </c>
       <c r="AC9" t="n">
-        <v>2317.544607642116</v>
+        <v>2444.370527593926</v>
       </c>
       <c r="AD9" t="n">
-        <v>1872519.976879649</v>
+        <v>1974992.25202499</v>
       </c>
       <c r="AE9" t="n">
-        <v>2562064.442117812</v>
+        <v>2702271.529729388</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.805051403834848e-07</v>
+        <v>1.921776524635126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.52018229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2317544.607642116</v>
+        <v>2444370.527593927</v>
       </c>
     </row>
     <row r="10">
@@ -12854,28 +12854,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1879.794128091226</v>
+        <v>1982.266403236567</v>
       </c>
       <c r="AB10" t="n">
-        <v>2572.017256718394</v>
+        <v>2712.22434432997</v>
       </c>
       <c r="AC10" t="n">
-        <v>2326.547539586082</v>
+        <v>2453.373459537891</v>
       </c>
       <c r="AD10" t="n">
-        <v>1879794.128091225</v>
+        <v>1982266.403236567</v>
       </c>
       <c r="AE10" t="n">
-        <v>2572017.256718393</v>
+        <v>2712224.34432997</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.811022205461055e-07</v>
+        <v>1.922946793502254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.5087890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2326547.539586082</v>
+        <v>2453373.459537892</v>
       </c>
     </row>
   </sheetData>
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5883.874258462224</v>
+        <v>6058.3918252517</v>
       </c>
       <c r="AB2" t="n">
-        <v>8050.576338640646</v>
+        <v>8289.358972693688</v>
       </c>
       <c r="AC2" t="n">
-        <v>7282.240631935336</v>
+        <v>7498.234186527878</v>
       </c>
       <c r="AD2" t="n">
-        <v>5883874.258462224</v>
+        <v>6058391.825251699</v>
       </c>
       <c r="AE2" t="n">
-        <v>8050576.338640646</v>
+        <v>8289358.972693688</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.406556169189913e-07</v>
+        <v>1.039520220538697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.35384114583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7282240.631935336</v>
+        <v>7498234.186527878</v>
       </c>
     </row>
     <row r="3">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3290.356878986377</v>
+        <v>3418.376188057856</v>
       </c>
       <c r="AB3" t="n">
-        <v>4502.011442130019</v>
+        <v>4677.173108614941</v>
       </c>
       <c r="AC3" t="n">
-        <v>4072.345788705704</v>
+        <v>4230.79027158224</v>
       </c>
       <c r="AD3" t="n">
-        <v>3290356.878986377</v>
+        <v>3418376.188057856</v>
       </c>
       <c r="AE3" t="n">
-        <v>4502011.442130019</v>
+        <v>4677173.108614941</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.627680597217796e-07</v>
+        <v>1.466576498696885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.8056640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4072345.788705704</v>
+        <v>4230790.27158224</v>
       </c>
     </row>
     <row r="4">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2758.671314197948</v>
+        <v>2875.044746003422</v>
       </c>
       <c r="AB4" t="n">
-        <v>3774.535796074794</v>
+        <v>3933.763059504522</v>
       </c>
       <c r="AC4" t="n">
-        <v>3414.299397291535</v>
+        <v>3558.330234176392</v>
       </c>
       <c r="AD4" t="n">
-        <v>2758671.314197948</v>
+        <v>2875044.746003422</v>
       </c>
       <c r="AE4" t="n">
-        <v>3774535.796074794</v>
+        <v>3933763.059504522</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.446708042144673e-07</v>
+        <v>1.624051157894812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3414299.397291535</v>
+        <v>3558330.234176392</v>
       </c>
     </row>
     <row r="5">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2510.155917022627</v>
+        <v>2626.44400797353</v>
       </c>
       <c r="AB5" t="n">
-        <v>3434.506065933958</v>
+        <v>3593.616562241488</v>
       </c>
       <c r="AC5" t="n">
-        <v>3106.721627360629</v>
+        <v>3250.646841213548</v>
       </c>
       <c r="AD5" t="n">
-        <v>2510155.917022627</v>
+        <v>2626444.007973529</v>
       </c>
       <c r="AE5" t="n">
-        <v>3434506.065933958</v>
+        <v>3593616.562241488</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.876697450731282e-07</v>
+        <v>1.706725353973724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.87760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3106721.627360629</v>
+        <v>3250646.841213548</v>
       </c>
     </row>
     <row r="6">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2360.05997536003</v>
+        <v>2464.70227855348</v>
       </c>
       <c r="AB6" t="n">
-        <v>3229.138176785576</v>
+        <v>3372.314392507463</v>
       </c>
       <c r="AC6" t="n">
-        <v>2920.953761316935</v>
+        <v>3050.4654399594</v>
       </c>
       <c r="AD6" t="n">
-        <v>2360059.97536003</v>
+        <v>2464702.278553479</v>
       </c>
       <c r="AE6" t="n">
-        <v>3229138.176785576</v>
+        <v>3372314.392507463</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.143856403005048e-07</v>
+        <v>1.758092088045429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.35514322916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2920953.761316935</v>
+        <v>3050465.4399594</v>
       </c>
     </row>
     <row r="7">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2249.599852828418</v>
+        <v>2342.766960465005</v>
       </c>
       <c r="AB7" t="n">
-        <v>3078.001763981139</v>
+        <v>3205.477110892229</v>
       </c>
       <c r="AC7" t="n">
-        <v>2784.241595629271</v>
+        <v>2899.550874343934</v>
       </c>
       <c r="AD7" t="n">
-        <v>2249599.852828417</v>
+        <v>2342766.960465005</v>
       </c>
       <c r="AE7" t="n">
-        <v>3078001.763981139</v>
+        <v>3205477.110892229</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.325212480096001e-07</v>
+        <v>1.792961476867827e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.01822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2784241.595629271</v>
+        <v>2899550.874343934</v>
       </c>
     </row>
     <row r="8">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2145.640851029221</v>
+        <v>2250.368405568693</v>
       </c>
       <c r="AB8" t="n">
-        <v>2935.760471371831</v>
+        <v>3079.053331746538</v>
       </c>
       <c r="AC8" t="n">
-        <v>2655.575612349802</v>
+        <v>2785.192803243025</v>
       </c>
       <c r="AD8" t="n">
-        <v>2145640.851029221</v>
+        <v>2250368.405568693</v>
       </c>
       <c r="AE8" t="n">
-        <v>2935760.47137183</v>
+        <v>3079053.331746538</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.458791956232883e-07</v>
+        <v>1.818644843903679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.77734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2655575.612349802</v>
+        <v>2785192.803243025</v>
       </c>
     </row>
     <row r="9">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2058.331756125116</v>
+        <v>2163.059310664586</v>
       </c>
       <c r="AB9" t="n">
-        <v>2816.300315918614</v>
+        <v>2959.593176293141</v>
       </c>
       <c r="AC9" t="n">
-        <v>2547.51656646966</v>
+        <v>2677.133757362835</v>
       </c>
       <c r="AD9" t="n">
-        <v>2058331.756125116</v>
+        <v>2163059.310664586</v>
       </c>
       <c r="AE9" t="n">
-        <v>2816300.315918614</v>
+        <v>2959593.176293141</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.559220321503679e-07</v>
+        <v>1.837954236638663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.6015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2547516.56646966</v>
+        <v>2677133.757362835</v>
       </c>
     </row>
     <row r="10">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1994.042934465328</v>
+        <v>2087.124701247344</v>
       </c>
       <c r="AB10" t="n">
-        <v>2728.33751390105</v>
+        <v>2855.696093689935</v>
       </c>
       <c r="AC10" t="n">
-        <v>2467.948810820084</v>
+        <v>2583.152466502806</v>
       </c>
       <c r="AD10" t="n">
-        <v>1994042.934465328</v>
+        <v>2087124.701247344</v>
       </c>
       <c r="AE10" t="n">
-        <v>2728337.51390105</v>
+        <v>2855696.093689934</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.632347771943578e-07</v>
+        <v>1.85201447406705e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.474609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2467948.810820084</v>
+        <v>2583152.466502807</v>
       </c>
     </row>
     <row r="11">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1989.061609716284</v>
+        <v>2082.143376498301</v>
       </c>
       <c r="AB11" t="n">
-        <v>2721.521845618871</v>
+        <v>2848.880425407755</v>
       </c>
       <c r="AC11" t="n">
-        <v>2461.783620352906</v>
+        <v>2576.987276035629</v>
       </c>
       <c r="AD11" t="n">
-        <v>1989061.609716284</v>
+        <v>2082143.376498301</v>
       </c>
       <c r="AE11" t="n">
-        <v>2721521.845618871</v>
+        <v>2848880.425407755</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.643073131341429e-07</v>
+        <v>1.854076642223213e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.45670572916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2461783.620352906</v>
+        <v>2576987.276035629</v>
       </c>
     </row>
     <row r="12">
@@ -14211,28 +14211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1999.594309591505</v>
+        <v>2092.676076373521</v>
       </c>
       <c r="AB12" t="n">
-        <v>2735.933150258072</v>
+        <v>2863.291730046956</v>
       </c>
       <c r="AC12" t="n">
-        <v>2474.819530303734</v>
+        <v>2590.023185986457</v>
       </c>
       <c r="AD12" t="n">
-        <v>1999594.309591505</v>
+        <v>2092676.076373521</v>
       </c>
       <c r="AE12" t="n">
-        <v>2735933.150258072</v>
+        <v>2863291.730046956</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.641123065996366e-07</v>
+        <v>1.853701702558456e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.4599609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2474819.530303734</v>
+        <v>2590023.185986457</v>
       </c>
     </row>
   </sheetData>
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8563.284874031717</v>
+        <v>8780.870931085798</v>
       </c>
       <c r="AB2" t="n">
-        <v>11716.66415011675</v>
+        <v>12014.37499259751</v>
       </c>
       <c r="AC2" t="n">
-        <v>10598.44216807058</v>
+        <v>10867.73990558476</v>
       </c>
       <c r="AD2" t="n">
-        <v>8563284.874031717</v>
+        <v>8780870.931085797</v>
       </c>
       <c r="AE2" t="n">
-        <v>11716664.15011675</v>
+        <v>12014374.99259751</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.409166175430269e-07</v>
+        <v>8.213942165338322e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.74446614583334</v>
       </c>
       <c r="AH2" t="n">
-        <v>10598442.16807058</v>
+        <v>10867739.90558476</v>
       </c>
     </row>
     <row r="3">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4158.106265995786</v>
+        <v>4302.964598213058</v>
       </c>
       <c r="AB3" t="n">
-        <v>5689.304435837481</v>
+        <v>5887.505996675745</v>
       </c>
       <c r="AC3" t="n">
-        <v>5146.325205469862</v>
+        <v>5325.610687519355</v>
       </c>
       <c r="AD3" t="n">
-        <v>4158106.265995787</v>
+        <v>4302964.598213058</v>
       </c>
       <c r="AE3" t="n">
-        <v>5689304.435837481</v>
+        <v>5887505.996675746</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.816561495974692e-07</v>
+        <v>1.26987370551858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.470703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>5146325.205469863</v>
+        <v>5325610.687519355</v>
       </c>
     </row>
     <row r="4">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3372.352910174854</v>
+        <v>3493.28146456855</v>
       </c>
       <c r="AB4" t="n">
-        <v>4614.202029411692</v>
+        <v>4779.661812524452</v>
       </c>
       <c r="AC4" t="n">
-        <v>4173.829063797689</v>
+        <v>4323.497597434423</v>
       </c>
       <c r="AD4" t="n">
-        <v>3372352.910174854</v>
+        <v>3493281.46456855</v>
       </c>
       <c r="AE4" t="n">
-        <v>4614202.029411692</v>
+        <v>4779661.812524452</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.741686437372334e-07</v>
+        <v>1.442217465359083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.78678385416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4173829.063797689</v>
+        <v>4323497.597434423</v>
       </c>
     </row>
     <row r="5">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3036.793802659337</v>
+        <v>3157.637016198461</v>
       </c>
       <c r="AB5" t="n">
-        <v>4155.075254685914</v>
+        <v>4320.418270676475</v>
       </c>
       <c r="AC5" t="n">
-        <v>3758.52070406328</v>
+        <v>3908.083614668076</v>
       </c>
       <c r="AD5" t="n">
-        <v>3036793.802659337</v>
+        <v>3157637.016198461</v>
       </c>
       <c r="AE5" t="n">
-        <v>4155075.254685914</v>
+        <v>4320418.270676475</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.235776563754594e-07</v>
+        <v>1.534262708407164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.60026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3758520.70406328</v>
+        <v>3908083.614668076</v>
       </c>
     </row>
     <row r="6">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2833.969677327384</v>
+        <v>2954.727550011936</v>
       </c>
       <c r="AB6" t="n">
-        <v>3877.562338437825</v>
+        <v>4042.788587306188</v>
       </c>
       <c r="AC6" t="n">
-        <v>3507.493231050094</v>
+        <v>3656.950518622952</v>
       </c>
       <c r="AD6" t="n">
-        <v>2833969.677327384</v>
+        <v>2954727.550011936</v>
       </c>
       <c r="AE6" t="n">
-        <v>3877562.338437825</v>
+        <v>4042788.587306188</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.54634750033773e-07</v>
+        <v>1.592119718323101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.92154947916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3507493.231050095</v>
+        <v>3656950.518622952</v>
       </c>
     </row>
     <row r="7">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2709.464456986064</v>
+        <v>2818.300155940389</v>
       </c>
       <c r="AB7" t="n">
-        <v>3707.208803184161</v>
+        <v>3856.122607985644</v>
       </c>
       <c r="AC7" t="n">
-        <v>3353.397998108358</v>
+        <v>3488.09967838142</v>
       </c>
       <c r="AD7" t="n">
-        <v>2709464.456986064</v>
+        <v>2818300.155940389</v>
       </c>
       <c r="AE7" t="n">
-        <v>3707208.803184161</v>
+        <v>3856122.607985644</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.750571419242396e-07</v>
+        <v>1.630165085449641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.5048828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>3353397.998108359</v>
+        <v>3488099.67838142</v>
       </c>
     </row>
     <row r="8">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2610.591705622247</v>
+        <v>2719.256812375981</v>
       </c>
       <c r="AB8" t="n">
-        <v>3571.926742810241</v>
+        <v>3720.607135836877</v>
       </c>
       <c r="AC8" t="n">
-        <v>3231.027067706966</v>
+        <v>3365.517612697377</v>
       </c>
       <c r="AD8" t="n">
-        <v>2610591.705622247</v>
+        <v>2719256.812375981</v>
       </c>
       <c r="AE8" t="n">
-        <v>3571926.742810241</v>
+        <v>3720607.135836877</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.902092391332957e-07</v>
+        <v>1.65839229331772e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.20703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3231027.067706966</v>
+        <v>3365517.612697376</v>
       </c>
     </row>
     <row r="9">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2516.966454956832</v>
+        <v>2625.716813056586</v>
       </c>
       <c r="AB9" t="n">
-        <v>3443.824544395266</v>
+        <v>3592.621582074551</v>
       </c>
       <c r="AC9" t="n">
-        <v>3115.150763316156</v>
+        <v>3249.746820557279</v>
       </c>
       <c r="AD9" t="n">
-        <v>2516966.454956831</v>
+        <v>2625716.813056586</v>
       </c>
       <c r="AE9" t="n">
-        <v>3443824.544395266</v>
+        <v>3592621.582074551</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.021615145714952e-07</v>
+        <v>1.680658475921732e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3115150.763316156</v>
+        <v>3249746.820557279</v>
       </c>
     </row>
     <row r="10">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2443.842177263925</v>
+        <v>2552.59253536368</v>
       </c>
       <c r="AB10" t="n">
-        <v>3343.772681640375</v>
+        <v>3492.56971931966</v>
       </c>
       <c r="AC10" t="n">
-        <v>3024.647709918924</v>
+        <v>3159.243767160047</v>
       </c>
       <c r="AD10" t="n">
-        <v>2443842.177263925</v>
+        <v>2552592.53536368</v>
       </c>
       <c r="AE10" t="n">
-        <v>3343772.681640375</v>
+        <v>3492569.71931966</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.114786426689893e-07</v>
+        <v>1.698015578896513e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.80501302083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3024647.709918924</v>
+        <v>3159243.767160047</v>
       </c>
     </row>
     <row r="11">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2378.432630811728</v>
+        <v>2487.182988911483</v>
       </c>
       <c r="AB11" t="n">
-        <v>3254.276454518944</v>
+        <v>3403.07349219823</v>
       </c>
       <c r="AC11" t="n">
-        <v>2943.692877105223</v>
+        <v>3078.288934346346</v>
       </c>
       <c r="AD11" t="n">
-        <v>2378432.630811729</v>
+        <v>2487182.988911483</v>
       </c>
       <c r="AE11" t="n">
-        <v>3254276.454518944</v>
+        <v>3403073.49219823</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.188194102609541e-07</v>
+        <v>1.711690872149371e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67154947916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2943692.877105223</v>
+        <v>3078288.934346346</v>
       </c>
     </row>
     <row r="12">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2320.981997740194</v>
+        <v>2429.732355839948</v>
       </c>
       <c r="AB12" t="n">
-        <v>3175.669963807414</v>
+        <v>3324.467001486699</v>
       </c>
       <c r="AC12" t="n">
-        <v>2872.588479542302</v>
+        <v>3007.184536783425</v>
       </c>
       <c r="AD12" t="n">
-        <v>2320981.997740194</v>
+        <v>2429732.355839949</v>
       </c>
       <c r="AE12" t="n">
-        <v>3175669.963807414</v>
+        <v>3324467.001486699</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.249367165875918e-07</v>
+        <v>1.723086949860086e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.56087239583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2872588.479542302</v>
+        <v>3007184.536783425</v>
       </c>
     </row>
     <row r="13">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2265.05723471979</v>
+        <v>2361.714826888726</v>
       </c>
       <c r="AB13" t="n">
-        <v>3099.151235816476</v>
+        <v>3231.402417654034</v>
       </c>
       <c r="AC13" t="n">
-        <v>2803.372591556113</v>
+        <v>2923.001906214789</v>
       </c>
       <c r="AD13" t="n">
-        <v>2265057.23471979</v>
+        <v>2361714.826888726</v>
       </c>
       <c r="AE13" t="n">
-        <v>3099151.235816476</v>
+        <v>3231402.417654034</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.301128988639773e-07</v>
+        <v>1.732729784846075e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.4697265625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2803372.591556113</v>
+        <v>2923001.906214789</v>
       </c>
     </row>
     <row r="14">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2219.743128905614</v>
+        <v>2316.40072107455</v>
       </c>
       <c r="AB14" t="n">
-        <v>3037.15047712426</v>
+        <v>3169.401658961818</v>
       </c>
       <c r="AC14" t="n">
-        <v>2747.289098254872</v>
+        <v>2866.918412913548</v>
       </c>
       <c r="AD14" t="n">
-        <v>2219743.128905614</v>
+        <v>2316400.72107455</v>
       </c>
       <c r="AE14" t="n">
-        <v>3037150.47712426</v>
+        <v>3169401.658961818</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339715074700103e-07</v>
+        <v>1.739918080017449e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.39973958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2747289.098254872</v>
+        <v>2866918.412913548</v>
       </c>
     </row>
     <row r="15">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2206.237773509706</v>
+        <v>2302.895365678643</v>
       </c>
       <c r="AB15" t="n">
-        <v>3018.671854057347</v>
+        <v>3150.923035894906</v>
       </c>
       <c r="AC15" t="n">
-        <v>2730.574049038557</v>
+        <v>2850.203363697233</v>
       </c>
       <c r="AD15" t="n">
-        <v>2206237.773509706</v>
+        <v>2302895.365678642</v>
       </c>
       <c r="AE15" t="n">
-        <v>3018671.854057347</v>
+        <v>3150923.035894906</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.354773059504133e-07</v>
+        <v>1.74272326837701e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.37369791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2730574.049038557</v>
+        <v>2850203.363697233</v>
       </c>
     </row>
     <row r="16">
@@ -15992,28 +15992,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2216.924923013474</v>
+        <v>2313.582515182409</v>
       </c>
       <c r="AB16" t="n">
-        <v>3033.294483492164</v>
+        <v>3165.545665329722</v>
       </c>
       <c r="AC16" t="n">
-        <v>2743.801115243103</v>
+        <v>2863.430429901779</v>
       </c>
       <c r="AD16" t="n">
-        <v>2216924.923013474</v>
+        <v>2313582.515182409</v>
       </c>
       <c r="AE16" t="n">
-        <v>3033294.483492163</v>
+        <v>3165545.665329722</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.352890811403629e-07</v>
+        <v>1.742372619832065e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.376953125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2743801.115243103</v>
+        <v>2863430.429901779</v>
       </c>
     </row>
   </sheetData>
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3966.22222582075</v>
+        <v>4099.66811719861</v>
       </c>
       <c r="AB2" t="n">
-        <v>5426.76022674358</v>
+        <v>5609.346782544007</v>
       </c>
       <c r="AC2" t="n">
-        <v>4908.837847208783</v>
+        <v>5073.99859838545</v>
       </c>
       <c r="AD2" t="n">
-        <v>3966222.22582075</v>
+        <v>4099668.11719861</v>
       </c>
       <c r="AE2" t="n">
-        <v>5426760.22674358</v>
+        <v>5609346.782544007</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.621044155627718e-07</v>
+        <v>1.327186549705799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.02766927083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4908837.847208783</v>
+        <v>5073998.59838545</v>
       </c>
     </row>
     <row r="3">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2521.689851920442</v>
+        <v>2632.724094610941</v>
       </c>
       <c r="AB3" t="n">
-        <v>3450.287304502446</v>
+        <v>3602.209253836664</v>
       </c>
       <c r="AC3" t="n">
-        <v>3120.996726669248</v>
+        <v>3258.419458382797</v>
       </c>
       <c r="AD3" t="n">
-        <v>2521689.851920442</v>
+        <v>2632724.094610942</v>
       </c>
       <c r="AE3" t="n">
-        <v>3450287.304502446</v>
+        <v>3602209.253836664</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.577932801962713e-07</v>
+        <v>1.719444361259628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.31966145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3120996.726669248</v>
+        <v>3258419.458382797</v>
       </c>
     </row>
     <row r="4">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2158.631445908261</v>
+        <v>2269.66559909021</v>
       </c>
       <c r="AB4" t="n">
-        <v>2953.53477638993</v>
+        <v>3105.456603254774</v>
       </c>
       <c r="AC4" t="n">
-        <v>2671.653562643369</v>
+        <v>2809.076183575738</v>
       </c>
       <c r="AD4" t="n">
-        <v>2158631.445908261</v>
+        <v>2269665.599090211</v>
       </c>
       <c r="AE4" t="n">
-        <v>2953534.77638993</v>
+        <v>3105456.603254774</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.278421557778777e-07</v>
+        <v>1.859857147081185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.85970052083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2671653.562643369</v>
+        <v>2809076.183575738</v>
       </c>
     </row>
     <row r="5">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1975.647079418453</v>
+        <v>2075.560838619842</v>
       </c>
       <c r="AB5" t="n">
-        <v>2703.167493458069</v>
+        <v>2839.873906681373</v>
       </c>
       <c r="AC5" t="n">
-        <v>2445.180981801836</v>
+        <v>2568.840326815763</v>
       </c>
       <c r="AD5" t="n">
-        <v>1975647.079418453</v>
+        <v>2075560.838619842</v>
       </c>
       <c r="AE5" t="n">
-        <v>2703167.493458069</v>
+        <v>2839873.906681373</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.643938219607221e-07</v>
+        <v>1.933124865264237e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.1826171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2445180.981801836</v>
+        <v>2568840.326815763</v>
       </c>
     </row>
     <row r="6">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1830.555605559294</v>
+        <v>1930.554616106704</v>
       </c>
       <c r="AB6" t="n">
-        <v>2504.6469379399</v>
+        <v>2641.469995815854</v>
       </c>
       <c r="AC6" t="n">
-        <v>2265.606949476971</v>
+        <v>2389.371806741611</v>
       </c>
       <c r="AD6" t="n">
-        <v>1830555.605559294</v>
+        <v>1930554.616106704</v>
       </c>
       <c r="AE6" t="n">
-        <v>2504646.9379399</v>
+        <v>2641469.995815854</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.874040630674705e-07</v>
+        <v>1.979248832699806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2265606.949476971</v>
+        <v>2389371.806741611</v>
       </c>
     </row>
     <row r="7">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1760.459655854795</v>
+        <v>1860.458666402204</v>
       </c>
       <c r="AB7" t="n">
-        <v>2408.738567139155</v>
+        <v>2545.561625015108</v>
       </c>
       <c r="AC7" t="n">
-        <v>2178.851938977205</v>
+        <v>2302.616796241845</v>
       </c>
       <c r="AD7" t="n">
-        <v>1760459.655854795</v>
+        <v>1860458.666402204</v>
       </c>
       <c r="AE7" t="n">
-        <v>2408738.567139155</v>
+        <v>2545561.625015108</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.97585585681076e-07</v>
+        <v>1.999657667848289e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.61295572916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2178851.938977206</v>
+        <v>2302616.796241845</v>
       </c>
     </row>
     <row r="8">
@@ -16925,28 +16925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1763.521423832528</v>
+        <v>1863.520434379938</v>
       </c>
       <c r="AB8" t="n">
-        <v>2412.92781316196</v>
+        <v>2549.750871037912</v>
       </c>
       <c r="AC8" t="n">
-        <v>2182.641369239238</v>
+        <v>2306.406226503877</v>
       </c>
       <c r="AD8" t="n">
-        <v>1763521.423832528</v>
+        <v>1863520.434379938</v>
       </c>
       <c r="AE8" t="n">
-        <v>2412927.81316196</v>
+        <v>2549750.871037913</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.981964770378925e-07</v>
+        <v>2.000882197957198e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2182641.369239238</v>
+        <v>2306406.226503877</v>
       </c>
     </row>
   </sheetData>
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2836.148296461549</v>
+        <v>2953.16078419112</v>
       </c>
       <c r="AB2" t="n">
-        <v>3880.543221251083</v>
+        <v>4040.644869189319</v>
       </c>
       <c r="AC2" t="n">
-        <v>3510.18962259135</v>
+        <v>3655.01139395443</v>
       </c>
       <c r="AD2" t="n">
-        <v>2836148.296461549</v>
+        <v>2953160.78419112</v>
       </c>
       <c r="AE2" t="n">
-        <v>3880543.221251083</v>
+        <v>4040644.869189319</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.742213208069557e-07</v>
+        <v>1.619719421316802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29654947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3510189.62259135</v>
+        <v>3655011.39395443</v>
       </c>
     </row>
     <row r="3">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1954.021090646296</v>
+        <v>2049.743080362123</v>
       </c>
       <c r="AB3" t="n">
-        <v>2673.577861548714</v>
+        <v>2804.548910834054</v>
       </c>
       <c r="AC3" t="n">
-        <v>2418.4153428326</v>
+        <v>2536.88669899317</v>
       </c>
       <c r="AD3" t="n">
-        <v>1954021.090646296</v>
+        <v>2049743.080362123</v>
       </c>
       <c r="AE3" t="n">
-        <v>2673577.861548714</v>
+        <v>2804548.910834054</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.976945211497631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.2666015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2418415.3428326</v>
+        <v>2536886.69899317</v>
       </c>
     </row>
     <row r="4">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1683.811440454856</v>
+        <v>1779.448089316112</v>
       </c>
       <c r="AB4" t="n">
-        <v>2303.865097348349</v>
+        <v>2434.719379511491</v>
       </c>
       <c r="AC4" t="n">
-        <v>2083.987445952394</v>
+        <v>2202.353179081025</v>
       </c>
       <c r="AD4" t="n">
-        <v>1683811.440454856</v>
+        <v>1779448.089316112</v>
       </c>
       <c r="AE4" t="n">
-        <v>2303865.097348349</v>
+        <v>2434719.379511491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.005215024466894e-06</v>
+        <v>2.102972695238445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.17122395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2083987.445952394</v>
+        <v>2202353.179081025</v>
       </c>
     </row>
     <row r="5">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1571.741483606071</v>
+        <v>1667.463383813348</v>
       </c>
       <c r="AB5" t="n">
-        <v>2150.526038210287</v>
+        <v>2281.49696502608</v>
       </c>
       <c r="AC5" t="n">
-        <v>1945.282851405748</v>
+        <v>2063.754096785092</v>
       </c>
       <c r="AD5" t="n">
-        <v>1571741.483606071</v>
+        <v>1667463.383813348</v>
       </c>
       <c r="AE5" t="n">
-        <v>2150526.038210287</v>
+        <v>2281496.96502608</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.02547204806609e-06</v>
+        <v>2.145351655440022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.83268229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1945282.851405748</v>
+        <v>2063754.096785092</v>
       </c>
     </row>
     <row r="6">
@@ -17646,28 +17646,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1581.190298764885</v>
+        <v>1676.912198972161</v>
       </c>
       <c r="AB6" t="n">
-        <v>2163.454323962881</v>
+        <v>2294.425250778673</v>
       </c>
       <c r="AC6" t="n">
-        <v>1956.977279711077</v>
+        <v>2075.448525090421</v>
       </c>
       <c r="AD6" t="n">
-        <v>1581190.298764885</v>
+        <v>1676912.198972161</v>
       </c>
       <c r="AE6" t="n">
-        <v>2163454.323962881</v>
+        <v>2294425.250778673</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.026002336641985e-06</v>
+        <v>2.146461052303938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.82454427083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1956977.279711077</v>
+        <v>2075448.525090421</v>
       </c>
     </row>
   </sheetData>
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2151.677509152864</v>
+        <v>2264.51140553013</v>
       </c>
       <c r="AB2" t="n">
-        <v>2944.02009333516</v>
+        <v>3098.404408238899</v>
       </c>
       <c r="AC2" t="n">
-        <v>2663.046947585404</v>
+        <v>2802.697040154361</v>
       </c>
       <c r="AD2" t="n">
-        <v>2151677.509152864</v>
+        <v>2264511.40553013</v>
       </c>
       <c r="AE2" t="n">
-        <v>2944020.09333516</v>
+        <v>3098404.408238899</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.683690818661088e-07</v>
+        <v>1.887709138979913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.56477864583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2663046.947585404</v>
+        <v>2802697.040154361</v>
       </c>
     </row>
     <row r="3">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1544.605034479054</v>
+        <v>1636.9935013051</v>
       </c>
       <c r="AB3" t="n">
-        <v>2113.396751339059</v>
+        <v>2239.80672754195</v>
       </c>
       <c r="AC3" t="n">
-        <v>1911.697131562229</v>
+        <v>2026.042717053832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1544605.034479054</v>
+        <v>1636993.5013051</v>
       </c>
       <c r="AE3" t="n">
-        <v>2113396.751339059</v>
+        <v>2239806.72754195</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017686873454204e-06</v>
+        <v>2.212304481765972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.54720052083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1911697.131562229</v>
+        <v>2026042.717053832</v>
       </c>
     </row>
     <row r="4">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1448.655685018365</v>
+        <v>1530.778856150068</v>
       </c>
       <c r="AB4" t="n">
-        <v>1982.114618420396</v>
+        <v>2094.479164181402</v>
       </c>
       <c r="AC4" t="n">
-        <v>1792.944381153692</v>
+        <v>1894.585012371898</v>
       </c>
       <c r="AD4" t="n">
-        <v>1448655.685018365</v>
+        <v>1530778.856150068</v>
       </c>
       <c r="AE4" t="n">
-        <v>1982114.618420396</v>
+        <v>2094479.164181402</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042810881002825e-06</v>
+        <v>2.26692045053747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.1240234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1792944.381153692</v>
+        <v>1894585.012371898</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1195.430515699325</v>
+        <v>1280.95666042267</v>
       </c>
       <c r="AB2" t="n">
-        <v>1635.640770252061</v>
+        <v>1752.661414609751</v>
       </c>
       <c r="AC2" t="n">
-        <v>1479.537510775443</v>
+        <v>1585.389869075141</v>
       </c>
       <c r="AD2" t="n">
-        <v>1195430.515699325</v>
+        <v>1280956.66042267</v>
       </c>
       <c r="AE2" t="n">
-        <v>1635640.770252061</v>
+        <v>1752661.414609751</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042478412786345e-06</v>
+        <v>2.479563013703052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1479537.510775443</v>
+        <v>1585389.869075141</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1208.287981666374</v>
+        <v>1293.814126389718</v>
       </c>
       <c r="AB3" t="n">
-        <v>1653.232922419542</v>
+        <v>1770.253566777232</v>
       </c>
       <c r="AC3" t="n">
-        <v>1495.4506926308</v>
+        <v>1601.303050930498</v>
       </c>
       <c r="AD3" t="n">
-        <v>1208287.981666374</v>
+        <v>1293814.126389718</v>
       </c>
       <c r="AE3" t="n">
-        <v>1653232.922419542</v>
+        <v>1770253.566777232</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.044126972345705e-06</v>
+        <v>2.483484157065962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.35611979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1495450.6926308</v>
+        <v>1601303.050930498</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5354.957385330193</v>
+        <v>5516.197722200322</v>
       </c>
       <c r="AB2" t="n">
-        <v>7326.88893865576</v>
+        <v>7547.505080983106</v>
       </c>
       <c r="AC2" t="n">
-        <v>6627.62094170339</v>
+        <v>6827.181789043706</v>
       </c>
       <c r="AD2" t="n">
-        <v>5354957.385330193</v>
+        <v>5516197.722200322</v>
       </c>
       <c r="AE2" t="n">
-        <v>7326888.93865576</v>
+        <v>7547505.080983106</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.683086335961213e-07</v>
+        <v>1.102847342380268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.20475260416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6627620.941703389</v>
+        <v>6827181.789043706</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3097.254500632665</v>
+        <v>3212.401812298181</v>
       </c>
       <c r="AB3" t="n">
-        <v>4237.80024899077</v>
+        <v>4395.349880752403</v>
       </c>
       <c r="AC3" t="n">
-        <v>3833.350541016936</v>
+        <v>3975.86385704553</v>
       </c>
       <c r="AD3" t="n">
-        <v>3097254.500632666</v>
+        <v>3212401.812298181</v>
       </c>
       <c r="AE3" t="n">
-        <v>4237800.24899077</v>
+        <v>4395349.880752403</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.847602670468706e-07</v>
+        <v>1.522888662524407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.4248046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3833350.541016936</v>
+        <v>3975863.85704553</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2612.143705752485</v>
+        <v>2727.29092790945</v>
       </c>
       <c r="AB4" t="n">
-        <v>3574.050257857847</v>
+        <v>3731.599767149931</v>
       </c>
       <c r="AC4" t="n">
-        <v>3232.9479174588</v>
+        <v>3375.461122706168</v>
       </c>
       <c r="AD4" t="n">
-        <v>2612143.705752485</v>
+        <v>2727290.92790945</v>
       </c>
       <c r="AE4" t="n">
-        <v>3574050.257857847</v>
+        <v>3731599.767149931</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.639354778268535e-07</v>
+        <v>1.67653435014765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.55305989583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3232947.9174588</v>
+        <v>3375461.122706168</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2374.636921930588</v>
+        <v>2478.34622864097</v>
       </c>
       <c r="AB5" t="n">
-        <v>3249.082998172909</v>
+        <v>3390.982646945764</v>
       </c>
       <c r="AC5" t="n">
-        <v>2938.995076943792</v>
+        <v>3067.352022395168</v>
       </c>
       <c r="AD5" t="n">
-        <v>2374636.921930588</v>
+        <v>2478346.22864097</v>
       </c>
       <c r="AE5" t="n">
-        <v>3249082.998172909</v>
+        <v>3390982.646945764</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.061819522355758e-07</v>
+        <v>1.758516937200351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.68717447916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2938995.076943792</v>
+        <v>3067352.022395168</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2235.625712516408</v>
+        <v>2339.164427026198</v>
       </c>
       <c r="AB6" t="n">
-        <v>3058.881728710686</v>
+        <v>3200.547965708694</v>
       </c>
       <c r="AC6" t="n">
-        <v>2766.946349689893</v>
+        <v>2895.092159858618</v>
       </c>
       <c r="AD6" t="n">
-        <v>2235625.712516408</v>
+        <v>2339164.427026198</v>
       </c>
       <c r="AE6" t="n">
-        <v>3058881.728710686</v>
+        <v>3200547.965708694</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.310965397073863e-07</v>
+        <v>1.806865642385277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2766946.349689893</v>
+        <v>2895092.159858618</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2112.872932065673</v>
+        <v>2216.496897921485</v>
       </c>
       <c r="AB7" t="n">
-        <v>2890.925959027345</v>
+        <v>3032.708840678171</v>
       </c>
       <c r="AC7" t="n">
-        <v>2615.020042937842</v>
+        <v>2743.271365357323</v>
       </c>
       <c r="AD7" t="n">
-        <v>2112872.932065673</v>
+        <v>2216496.897921485</v>
       </c>
       <c r="AE7" t="n">
-        <v>2890925.959027345</v>
+        <v>3032708.840678171</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.486253799049449e-07</v>
+        <v>1.840881727456094e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.89615885416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2615020.042937842</v>
+        <v>2743271.365357323</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2019.973262788706</v>
+        <v>2123.597228644516</v>
       </c>
       <c r="AB8" t="n">
-        <v>2763.816533078445</v>
+        <v>2905.599414729093</v>
       </c>
       <c r="AC8" t="n">
-        <v>2500.041762202304</v>
+        <v>2628.29308462174</v>
       </c>
       <c r="AD8" t="n">
-        <v>2019973.262788706</v>
+        <v>2123597.228644516</v>
       </c>
       <c r="AE8" t="n">
-        <v>2763816.533078445</v>
+        <v>2905599.414729093</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.618212483682751e-07</v>
+        <v>1.866489342059968e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.6650390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2500041.762202304</v>
+        <v>2628293.08462174</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1944.505422493945</v>
+        <v>2048.129388349756</v>
       </c>
       <c r="AB9" t="n">
-        <v>2660.558104581017</v>
+        <v>2802.340986231666</v>
       </c>
       <c r="AC9" t="n">
-        <v>2406.638173196557</v>
+        <v>2534.889495615992</v>
       </c>
       <c r="AD9" t="n">
-        <v>1944505.422493945</v>
+        <v>2048129.388349756</v>
       </c>
       <c r="AE9" t="n">
-        <v>2660558.104581017</v>
+        <v>2802340.986231666</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.701917619457609e-07</v>
+        <v>1.882732978189291e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.52018229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2406638.173196557</v>
+        <v>2534889.495615992</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1930.808307896483</v>
+        <v>2022.909106959691</v>
       </c>
       <c r="AB10" t="n">
-        <v>2641.817108114721</v>
+        <v>2767.83348459349</v>
       </c>
       <c r="AC10" t="n">
-        <v>2389.68579112985</v>
+        <v>2503.675341502581</v>
       </c>
       <c r="AD10" t="n">
-        <v>1930808.307896483</v>
+        <v>2022909.106959691</v>
       </c>
       <c r="AE10" t="n">
-        <v>2641817.108114721</v>
+        <v>2767833.48459349</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.720628179219048e-07</v>
+        <v>1.886363908618198e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.48763020833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2389685.79112985</v>
+        <v>2503675.341502581</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1940.457404489126</v>
+        <v>2032.558203552335</v>
       </c>
       <c r="AB11" t="n">
-        <v>2655.019427760874</v>
+        <v>2781.035804239644</v>
       </c>
       <c r="AC11" t="n">
-        <v>2401.628099918546</v>
+        <v>2515.617650291278</v>
       </c>
       <c r="AD11" t="n">
-        <v>1940457.404489127</v>
+        <v>2032558.203552335</v>
       </c>
       <c r="AE11" t="n">
-        <v>2655019.427760874</v>
+        <v>2781035.804239644</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.721612945522284e-07</v>
+        <v>1.88655501021972e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.48600260416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2401628.099918547</v>
+        <v>2515617.650291278</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7803.700453787422</v>
+        <v>8007.305983556946</v>
       </c>
       <c r="AB2" t="n">
-        <v>10677.36723583887</v>
+        <v>10955.94930411158</v>
       </c>
       <c r="AC2" t="n">
-        <v>9658.334292629044</v>
+        <v>9910.328879298178</v>
       </c>
       <c r="AD2" t="n">
-        <v>7803700.453787422</v>
+        <v>8007305.983556946</v>
       </c>
       <c r="AE2" t="n">
-        <v>10677367.23583887</v>
+        <v>10955949.30411158</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642273901728292e-07</v>
+        <v>8.710726675226529e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.27311197916666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9658334.292629045</v>
+        <v>9910328.879298178</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3935.892575344312</v>
+        <v>4067.66246174366</v>
       </c>
       <c r="AB3" t="n">
-        <v>5385.261860911971</v>
+        <v>5565.555232760677</v>
       </c>
       <c r="AC3" t="n">
-        <v>4871.300027168822</v>
+        <v>5034.386452651617</v>
       </c>
       <c r="AD3" t="n">
-        <v>3935892.575344312</v>
+        <v>4067662.46174366</v>
       </c>
       <c r="AE3" t="n">
-        <v>5385261.860911971</v>
+        <v>5565555.232760677</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.009909507781458e-07</v>
+        <v>1.315333972810678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.03450520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4871300.027168822</v>
+        <v>5034386.452651617</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3216.343543134136</v>
+        <v>3336.211850175381</v>
       </c>
       <c r="AB4" t="n">
-        <v>4400.743130779048</v>
+        <v>4564.752236689372</v>
       </c>
       <c r="AC4" t="n">
-        <v>3980.742382859106</v>
+        <v>4129.098689889567</v>
       </c>
       <c r="AD4" t="n">
-        <v>3216343.543134136</v>
+        <v>3336211.850175381</v>
       </c>
       <c r="AE4" t="n">
-        <v>4400743.130779048</v>
+        <v>4564752.236689372</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912362999307133e-07</v>
+        <v>1.484669644685993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.51985677083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3980742.382859106</v>
+        <v>4129098.689889567</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2907.119996140461</v>
+        <v>3014.91622113156</v>
       </c>
       <c r="AB5" t="n">
-        <v>3977.649831802187</v>
+        <v>4125.141382468829</v>
       </c>
       <c r="AC5" t="n">
-        <v>3598.028514521438</v>
+        <v>3731.443678598141</v>
       </c>
       <c r="AD5" t="n">
-        <v>2907119.996140461</v>
+        <v>3014916.22113156</v>
       </c>
       <c r="AE5" t="n">
-        <v>3977649.831802187</v>
+        <v>4125141.382468829</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.386839072664482e-07</v>
+        <v>1.573699966387e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.41634114583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3598028.514521438</v>
+        <v>3731443.678598141</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2719.497775904914</v>
+        <v>2827.379252242034</v>
       </c>
       <c r="AB6" t="n">
-        <v>3720.936832767724</v>
+        <v>3868.545028087015</v>
       </c>
       <c r="AC6" t="n">
-        <v>3365.815843815877</v>
+        <v>3499.336520143292</v>
       </c>
       <c r="AD6" t="n">
-        <v>2719497.775904914</v>
+        <v>2827379.252242034</v>
       </c>
       <c r="AE6" t="n">
-        <v>3720936.832767724</v>
+        <v>3868545.028087015</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.682912142439467e-07</v>
+        <v>1.629254887128429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.7880859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3365815.843815877</v>
+        <v>3499336.520143292</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2597.391859337602</v>
+        <v>2705.10274347413</v>
       </c>
       <c r="AB7" t="n">
-        <v>3553.866130787469</v>
+        <v>3701.240914331914</v>
       </c>
       <c r="AC7" t="n">
-        <v>3214.690135147421</v>
+        <v>3347.999676192186</v>
       </c>
       <c r="AD7" t="n">
-        <v>2597391.859337602</v>
+        <v>2705102.74347413</v>
       </c>
       <c r="AE7" t="n">
-        <v>3553866.130787469</v>
+        <v>3701240.914331914</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.884089997542983e-07</v>
+        <v>1.667003743529656e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.38606770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3214690.135147421</v>
+        <v>3347999.676192186</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2498.624427348233</v>
+        <v>2594.519162489779</v>
       </c>
       <c r="AB8" t="n">
-        <v>3418.728173028031</v>
+        <v>3549.935580225838</v>
       </c>
       <c r="AC8" t="n">
-        <v>3092.449554409233</v>
+        <v>3211.134710814829</v>
       </c>
       <c r="AD8" t="n">
-        <v>2498624.427348232</v>
+        <v>2594519.162489779</v>
       </c>
       <c r="AE8" t="n">
-        <v>3418728.17302803</v>
+        <v>3549935.580225838</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.034973388870618e-07</v>
+        <v>1.695315385830576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.0947265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3092449.554409233</v>
+        <v>3211134.710814829</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2406.524118588473</v>
+        <v>2514.320254071021</v>
       </c>
       <c r="AB9" t="n">
-        <v>3292.712467404063</v>
+        <v>3440.203895601157</v>
       </c>
       <c r="AC9" t="n">
-        <v>2978.460610865867</v>
+        <v>3111.875664161345</v>
       </c>
       <c r="AD9" t="n">
-        <v>2406524.118588473</v>
+        <v>2514320.254071021</v>
       </c>
       <c r="AE9" t="n">
-        <v>3292712.467404063</v>
+        <v>3440203.895601157</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.150745550769812e-07</v>
+        <v>1.717038784325622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.87825520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2978460.610865867</v>
+        <v>3111875.664161345</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2337.358730976419</v>
+        <v>2445.154866458967</v>
       </c>
       <c r="AB10" t="n">
-        <v>3198.077332711698</v>
+        <v>3345.568760908792</v>
       </c>
       <c r="AC10" t="n">
-        <v>2892.8573206073</v>
+        <v>3026.272373902777</v>
       </c>
       <c r="AD10" t="n">
-        <v>2337358.730976419</v>
+        <v>2445154.866458967</v>
       </c>
       <c r="AE10" t="n">
-        <v>3198077.332711698</v>
+        <v>3345568.760908792</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.238049148267563e-07</v>
+        <v>1.733420363518607e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2892857.3206073</v>
+        <v>3026272.373902777</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2268.989179867128</v>
+        <v>2376.785315349677</v>
       </c>
       <c r="AB11" t="n">
-        <v>3104.531096632243</v>
+        <v>3252.022524829337</v>
       </c>
       <c r="AC11" t="n">
-        <v>2808.239006006304</v>
+        <v>2941.654059301782</v>
       </c>
       <c r="AD11" t="n">
-        <v>2268989.179867128</v>
+        <v>2376785.315349677</v>
       </c>
       <c r="AE11" t="n">
-        <v>3104531.096632243</v>
+        <v>3252022.524829337</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.31396532000474e-07</v>
+        <v>1.747665214990768e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.58365885416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2808239.006006304</v>
+        <v>2941654.059301781</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2207.051017487783</v>
+        <v>2302.860411774758</v>
       </c>
       <c r="AB12" t="n">
-        <v>3019.784570345944</v>
+        <v>3150.875210421554</v>
       </c>
       <c r="AC12" t="n">
-        <v>2731.580569246277</v>
+        <v>2850.160102619934</v>
       </c>
       <c r="AD12" t="n">
-        <v>2207051.017487783</v>
+        <v>2302860.411774758</v>
       </c>
       <c r="AE12" t="n">
-        <v>3019784.570345944</v>
+        <v>3150875.210421554</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.369953496660907e-07</v>
+        <v>1.758170792951487e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.48274739583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2731580.569246277</v>
+        <v>2850160.102619934</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2159.85410658224</v>
+        <v>2255.663500869217</v>
       </c>
       <c r="AB13" t="n">
-        <v>2955.207674664051</v>
+        <v>3086.298314739834</v>
       </c>
       <c r="AC13" t="n">
-        <v>2673.166801854135</v>
+        <v>2791.746335227837</v>
       </c>
       <c r="AD13" t="n">
-        <v>2159854.10658224</v>
+        <v>2255663.500869217</v>
       </c>
       <c r="AE13" t="n">
-        <v>2955207.674664051</v>
+        <v>3086298.314739834</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.410758438969639e-07</v>
+        <v>1.765827400617773e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.41276041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2673166.801854135</v>
+        <v>2791746.335227837</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2153.461075866731</v>
+        <v>2249.270470153709</v>
       </c>
       <c r="AB14" t="n">
-        <v>2946.460447998482</v>
+        <v>3077.551088074264</v>
       </c>
       <c r="AC14" t="n">
-        <v>2665.254398224718</v>
+        <v>2783.833931598421</v>
       </c>
       <c r="AD14" t="n">
-        <v>2153461.075866731</v>
+        <v>2249270.470153709</v>
       </c>
       <c r="AE14" t="n">
-        <v>2946460.447998482</v>
+        <v>3077551.088074265</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.422145864730215e-07</v>
+        <v>1.767964128338598e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.3916015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2665254.398224718</v>
+        <v>2783833.931598421</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2163.155076397286</v>
+        <v>2258.964470684263</v>
       </c>
       <c r="AB15" t="n">
-        <v>2959.724207193507</v>
+        <v>3090.81484726929</v>
       </c>
       <c r="AC15" t="n">
-        <v>2677.252282857972</v>
+        <v>2795.831816231675</v>
       </c>
       <c r="AD15" t="n">
-        <v>2163155.076397286</v>
+        <v>2258964.470684263</v>
       </c>
       <c r="AE15" t="n">
-        <v>2959724.207193507</v>
+        <v>3090814.84726929</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4211969125835e-07</v>
+        <v>1.767786067695196e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.39322916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2677252.282857972</v>
+        <v>2795831.816231675</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1083.449100036014</v>
+        <v>1175.051029668348</v>
       </c>
       <c r="AB2" t="n">
-        <v>1482.422857070127</v>
+        <v>1607.756658385009</v>
       </c>
       <c r="AC2" t="n">
-        <v>1340.942500184901</v>
+        <v>1454.314619409385</v>
       </c>
       <c r="AD2" t="n">
-        <v>1083449.100036014</v>
+        <v>1175051.029668348</v>
       </c>
       <c r="AE2" t="n">
-        <v>1482422.857070127</v>
+        <v>1607756.658385009</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00535235780431e-06</v>
+        <v>2.514309951148986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7412109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1340942.500184901</v>
+        <v>1454314.619409385</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3196.852244899309</v>
+        <v>3326.449016390832</v>
       </c>
       <c r="AB2" t="n">
-        <v>4374.074276638768</v>
+        <v>4551.394296799523</v>
       </c>
       <c r="AC2" t="n">
-        <v>3956.618766728001</v>
+        <v>4117.01561303482</v>
       </c>
       <c r="AD2" t="n">
-        <v>3196852.244899309</v>
+        <v>3326449.016390832</v>
       </c>
       <c r="AE2" t="n">
-        <v>4374074.276638768</v>
+        <v>4551394.296799523</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.335685809752506e-07</v>
+        <v>1.510625644198284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.18684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3956618.766728002</v>
+        <v>4117015.61303482</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2143.811619329347</v>
+        <v>2251.865748218207</v>
       </c>
       <c r="AB3" t="n">
-        <v>2933.257635860056</v>
+        <v>3081.102062017699</v>
       </c>
       <c r="AC3" t="n">
-        <v>2653.311643946521</v>
+        <v>2787.046005572517</v>
       </c>
       <c r="AD3" t="n">
-        <v>2143811.619329347</v>
+        <v>2251865.748218207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2933257.635860056</v>
+        <v>3081102.062017699</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.135379635709739e-07</v>
+        <v>1.881233616745576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.62141927083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2653311.643946521</v>
+        <v>2787046.005572517</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1849.063422425466</v>
+        <v>1946.21835299396</v>
       </c>
       <c r="AB4" t="n">
-        <v>2529.970149483451</v>
+        <v>2662.901811660299</v>
       </c>
       <c r="AC4" t="n">
-        <v>2288.513349252156</v>
+        <v>2408.758200161605</v>
       </c>
       <c r="AD4" t="n">
-        <v>1849063.422425466</v>
+        <v>1946218.35299396</v>
       </c>
       <c r="AE4" t="n">
-        <v>2529970.149483451</v>
+        <v>2662901.811660299</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.77290183886532e-07</v>
+        <v>2.012517509459773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.40559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2288513.349252156</v>
+        <v>2408758.200161605</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1672.311905094269</v>
+        <v>1769.552087008784</v>
       </c>
       <c r="AB5" t="n">
-        <v>2288.130925744299</v>
+        <v>2421.179232573795</v>
       </c>
       <c r="AC5" t="n">
-        <v>2069.754921603186</v>
+        <v>2190.105284763347</v>
       </c>
       <c r="AD5" t="n">
-        <v>1672311.905094269</v>
+        <v>1769552.087008784</v>
       </c>
       <c r="AE5" t="n">
-        <v>2288130.925744298</v>
+        <v>2421179.232573795</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.01021141241014e-06</v>
+        <v>2.0803116507794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.83756510416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2069754.921603186</v>
+        <v>2190105.284763347</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1637.32018913362</v>
+        <v>1734.560371048134</v>
       </c>
       <c r="AB6" t="n">
-        <v>2240.253716241381</v>
+        <v>2373.302023070878</v>
       </c>
       <c r="AC6" t="n">
-        <v>2026.447045779141</v>
+        <v>2146.797408939302</v>
       </c>
       <c r="AD6" t="n">
-        <v>1637320.18913362</v>
+        <v>1734560.371048134</v>
       </c>
       <c r="AE6" t="n">
-        <v>2240253.716241381</v>
+        <v>2373302.023070877</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>2.09344004005082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.73177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2026447.045779141</v>
+        <v>2146797.408939302</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1648.403829153732</v>
+        <v>1745.644011068247</v>
       </c>
       <c r="AB7" t="n">
-        <v>2255.418841492586</v>
+        <v>2388.467148322083</v>
       </c>
       <c r="AC7" t="n">
-        <v>2040.164832760758</v>
+        <v>2160.51519592092</v>
       </c>
       <c r="AD7" t="n">
-        <v>1648403.829153732</v>
+        <v>1745644.011068247</v>
       </c>
       <c r="AE7" t="n">
-        <v>2255418.841492586</v>
+        <v>2388467.148322083</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>2.09344004005082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.7333984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2040164.832760758</v>
+        <v>2160515.19592092</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4402.073097716261</v>
+        <v>4548.384841644297</v>
       </c>
       <c r="AB2" t="n">
-        <v>6023.110618054449</v>
+        <v>6223.300800915384</v>
       </c>
       <c r="AC2" t="n">
-        <v>5448.273394155951</v>
+        <v>5629.357706933317</v>
       </c>
       <c r="AD2" t="n">
-        <v>4402073.097716261</v>
+        <v>4548384.841644297</v>
       </c>
       <c r="AE2" t="n">
-        <v>6023110.61805445</v>
+        <v>6223300.800915384</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.285887394160762e-07</v>
+        <v>1.245350023376726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.05305989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5448273.394155951</v>
+        <v>5629357.706933317</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2708.829713407457</v>
+        <v>2821.442786695194</v>
       </c>
       <c r="AB3" t="n">
-        <v>3706.340319017002</v>
+        <v>3860.422494027451</v>
       </c>
       <c r="AC3" t="n">
-        <v>3352.612400851189</v>
+        <v>3491.989189334326</v>
       </c>
       <c r="AD3" t="n">
-        <v>2708829.713407457</v>
+        <v>2821442.786695194</v>
       </c>
       <c r="AE3" t="n">
-        <v>3706340.319017002</v>
+        <v>3860422.494027451</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319468060656501e-07</v>
+        <v>1.648239794025735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.68424479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3352612.400851189</v>
+        <v>3491989.189334325</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2320.020660414442</v>
+        <v>2421.287175027384</v>
       </c>
       <c r="AB4" t="n">
-        <v>3174.354619667111</v>
+        <v>3312.911932523866</v>
       </c>
       <c r="AC4" t="n">
-        <v>2871.398670000652</v>
+        <v>2996.732267384763</v>
       </c>
       <c r="AD4" t="n">
-        <v>2320020.660414442</v>
+        <v>2421287.175027384</v>
       </c>
       <c r="AE4" t="n">
-        <v>3174354.619667111</v>
+        <v>3312911.932523866</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.05099361461118e-07</v>
+        <v>1.793168474511549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.095703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2871398.670000652</v>
+        <v>2996732.267384763</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2113.32194959553</v>
+        <v>2214.503123353902</v>
       </c>
       <c r="AB5" t="n">
-        <v>2891.540324620952</v>
+        <v>3029.980870355677</v>
       </c>
       <c r="AC5" t="n">
-        <v>2615.575774341462</v>
+        <v>2740.803748693678</v>
       </c>
       <c r="AD5" t="n">
-        <v>2113321.94959553</v>
+        <v>2214503.123353902</v>
       </c>
       <c r="AE5" t="n">
-        <v>2891540.324620951</v>
+        <v>3029980.870355677</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.435371553552979e-07</v>
+        <v>1.869320821066681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2615575.774341462</v>
+        <v>2740803.748693678</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1966.275319194332</v>
+        <v>2067.541744298722</v>
       </c>
       <c r="AB6" t="n">
-        <v>2690.344637666545</v>
+        <v>2828.901828053743</v>
       </c>
       <c r="AC6" t="n">
-        <v>2433.581921370063</v>
+        <v>2558.915407972946</v>
       </c>
       <c r="AD6" t="n">
-        <v>1966275.319194332</v>
+        <v>2067541.744298722</v>
       </c>
       <c r="AE6" t="n">
-        <v>2690344.637666545</v>
+        <v>2828901.828053744</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.676865546605417e-07</v>
+        <v>1.91716522727933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.923828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2433581.921370063</v>
+        <v>2558915.407972946</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1857.447716368975</v>
+        <v>1958.714141473366</v>
       </c>
       <c r="AB7" t="n">
-        <v>2541.441910345903</v>
+        <v>2679.999100733101</v>
       </c>
       <c r="AC7" t="n">
-        <v>2298.890261358613</v>
+        <v>2424.223747961495</v>
       </c>
       <c r="AD7" t="n">
-        <v>1857447.716368975</v>
+        <v>1958714.141473365</v>
       </c>
       <c r="AE7" t="n">
-        <v>2541441.910345903</v>
+        <v>2679999.100733101</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.836855317002658e-07</v>
+        <v>1.948862146395209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.64876302083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2298890.261358613</v>
+        <v>2424223.747961495</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1815.171618223464</v>
+        <v>1916.438043327854</v>
       </c>
       <c r="AB8" t="n">
-        <v>2483.597887773396</v>
+        <v>2622.155078160594</v>
       </c>
       <c r="AC8" t="n">
-        <v>2246.566791115831</v>
+        <v>2371.900277718712</v>
       </c>
       <c r="AD8" t="n">
-        <v>1815171.618223464</v>
+        <v>1916438.043327854</v>
       </c>
       <c r="AE8" t="n">
-        <v>2483597.887773396</v>
+        <v>2622155.078160594</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.894210140352611e-07</v>
+        <v>1.960225192870713e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.552734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2246566.791115831</v>
+        <v>2371900.277718713</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1824.803561834421</v>
+        <v>1926.069986938811</v>
       </c>
       <c r="AB9" t="n">
-        <v>2496.776737953269</v>
+        <v>2635.333928340467</v>
       </c>
       <c r="AC9" t="n">
-        <v>2258.487870331169</v>
+        <v>2383.821356934051</v>
       </c>
       <c r="AD9" t="n">
-        <v>1824803.561834421</v>
+        <v>1926069.986938811</v>
       </c>
       <c r="AE9" t="n">
-        <v>2496776.737953269</v>
+        <v>2635333.928340467</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.895216365323663e-07</v>
+        <v>1.960424544563266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.54947916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2258487.870331169</v>
+        <v>2383821.356934051</v>
       </c>
     </row>
   </sheetData>
